--- a/遂宁项目/2018年 遂宁志愿者官网及 APP平台开发 功能明细.xlsx
+++ b/遂宁项目/2018年 遂宁志愿者官网及 APP平台开发 功能明细.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="7760" yWindow="40" windowWidth="25600" windowHeight="19500" activeTab="2"/>
+    <workbookView xWindow="6340" yWindow="0" windowWidth="24620" windowHeight="19220" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="汇总表" sheetId="1" r:id="rId1"/>
@@ -649,23 +649,23 @@
   </si>
   <si>
     <t>志愿者社区：志愿者在线留言，交互功能，留言板块等</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>能完成中央文明办志愿者办考核内容，各种活动信息的展示，志愿者的感悟</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>有自己的权威性（发布文件确认签收、我们发布任务后，他们的实时动态信息反馈能体现，数据体现、社区开展活动可以在网上发布）</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>互联互通（达到要求的志愿者可以在联盟（旅游局，宾馆、超市…）的商家有一定的优惠）</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>兑换券</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -675,7 +675,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="_ \¥* #,##0.00_ ;_ \¥* \-#,##0.00_ ;_ \¥* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="29" x14ac:knownFonts="1">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -723,71 +723,6 @@
     <font>
       <b/>
       <sz val="14"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color theme="1"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color theme="1"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -853,6 +788,35 @@
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="4">
@@ -993,14 +957,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1042,255 +1006,268 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="21" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="23" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    </xf>
+    <xf numFmtId="176" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="9" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1581,90 +1558,90 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="54" customHeight="1">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-    </row>
-    <row r="2" spans="1:3" s="32" customFormat="1" ht="33" customHeight="1">
-      <c r="A2" s="33" t="s">
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+    </row>
+    <row r="2" spans="1:3" s="13" customFormat="1" ht="33" customHeight="1">
+      <c r="A2" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="33" t="s">
+      <c r="B2" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="34" t="s">
+      <c r="C2" s="15" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="29" customHeight="1">
-      <c r="A3" s="35">
+      <c r="A3" s="16">
         <v>1</v>
       </c>
-      <c r="B3" s="36" t="s">
+      <c r="B3" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="37" t="s">
+      <c r="C3" s="18" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="30" customHeight="1">
-      <c r="A4" s="35">
+      <c r="A4" s="16">
         <v>2</v>
       </c>
-      <c r="B4" s="36" t="s">
+      <c r="B4" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="37" t="s">
+      <c r="C4" s="18" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="28" customHeight="1">
-      <c r="A5" s="35">
+      <c r="A5" s="16">
         <v>3</v>
       </c>
-      <c r="B5" s="36" t="s">
+      <c r="B5" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="37" t="s">
+      <c r="C5" s="18" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="28" customHeight="1">
-      <c r="A6" s="35">
+      <c r="A6" s="16">
         <v>4</v>
       </c>
-      <c r="B6" s="36" t="s">
+      <c r="B6" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="37" t="s">
+      <c r="C6" s="18" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="42" customHeight="1">
-      <c r="A7" s="40" t="s">
+      <c r="A7" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="40"/>
-      <c r="C7" s="40"/>
+      <c r="B7" s="21"/>
+      <c r="C7" s="21"/>
     </row>
     <row r="8" spans="1:3" ht="29" customHeight="1">
-      <c r="A8" s="41" t="s">
+      <c r="A8" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="41"/>
-      <c r="C8" s="41"/>
+      <c r="B8" s="22"/>
+      <c r="C8" s="22"/>
     </row>
     <row r="9" spans="1:3" ht="34" customHeight="1">
-      <c r="A9" s="41" t="s">
+      <c r="A9" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="41"/>
-      <c r="C9" s="41"/>
+      <c r="B9" s="22"/>
+      <c r="C9" s="22"/>
     </row>
     <row r="17" spans="2:2">
-      <c r="B17" s="38"/>
+      <c r="B17" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -1673,7 +1650,7 @@
     <mergeCell ref="A8:C8"/>
     <mergeCell ref="A9:C9"/>
   </mergeCells>
-  <phoneticPr fontId="28" type="noConversion"/>
+  <phoneticPr fontId="17" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
@@ -1687,8 +1664,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H43"/>
   <sheetViews>
-    <sheetView topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3:H42"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5:F42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -1703,660 +1680,648 @@
     <col min="8" max="8" width="21.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1" s="73" t="s">
+    <row r="1" spans="1:8" ht="57" customHeight="1">
+      <c r="A1" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="73"/>
-      <c r="C1" s="73"/>
-      <c r="D1" s="73"/>
-      <c r="E1" s="73"/>
-      <c r="F1" s="73"/>
-      <c r="G1" s="73"/>
-      <c r="H1" s="73"/>
-    </row>
-    <row r="2" spans="1:8" ht="45" customHeight="1">
-      <c r="A2" s="73"/>
-      <c r="B2" s="73"/>
-      <c r="C2" s="73"/>
-      <c r="D2" s="73"/>
-      <c r="E2" s="73"/>
-      <c r="F2" s="73"/>
-      <c r="G2" s="73"/>
-      <c r="H2" s="73"/>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="50" t="s">
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+    </row>
+    <row r="2" spans="1:8" ht="57" customHeight="1">
+      <c r="A2" s="27"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+    </row>
+    <row r="3" spans="1:8" ht="57" customHeight="1">
+      <c r="A3" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="50" t="s">
+      <c r="B3" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="50" t="s">
+      <c r="C3" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="66" t="s">
+      <c r="D3" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="68" t="s">
+      <c r="E3" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="F3" s="68" t="s">
+      <c r="F3" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="G3" s="68" t="s">
+      <c r="G3" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="H3" s="68" t="s">
+      <c r="H3" s="38" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="51"/>
-      <c r="B4" s="50"/>
-      <c r="C4" s="59"/>
-      <c r="D4" s="67"/>
-      <c r="E4" s="69"/>
-      <c r="F4" s="69"/>
-      <c r="G4" s="69"/>
-      <c r="H4" s="69"/>
-    </row>
-    <row r="5" spans="1:8" ht="31" customHeight="1">
-      <c r="A5" s="52" t="s">
+    <row r="4" spans="1:8" ht="57" customHeight="1">
+      <c r="A4" s="39"/>
+      <c r="B4" s="36"/>
+      <c r="C4" s="40"/>
+      <c r="D4" s="41"/>
+      <c r="E4" s="42"/>
+      <c r="F4" s="42"/>
+      <c r="G4" s="42"/>
+      <c r="H4" s="42"/>
+    </row>
+    <row r="5" spans="1:8" ht="57" customHeight="1">
+      <c r="A5" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="59" t="s">
+      <c r="B5" s="40" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="44" t="s">
         <v>26</v>
       </c>
-      <c r="D5" s="14" t="s">
+      <c r="D5" s="45" t="s">
         <v>27</v>
       </c>
-      <c r="E5" s="70" t="s">
+      <c r="E5" s="46" t="s">
         <v>28</v>
       </c>
-      <c r="F5" s="71" t="s">
+      <c r="F5" s="47" t="s">
         <v>29</v>
       </c>
-      <c r="G5" s="70" t="s">
+      <c r="G5" s="46" t="s">
         <v>29</v>
       </c>
-      <c r="H5" s="72" t="s">
+      <c r="H5" s="48" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="30" customHeight="1">
-      <c r="A6" s="53"/>
-      <c r="B6" s="60"/>
-      <c r="C6" s="13" t="s">
+    <row r="6" spans="1:8" ht="57" customHeight="1">
+      <c r="A6" s="49"/>
+      <c r="B6" s="50"/>
+      <c r="C6" s="44" t="s">
         <v>31</v>
       </c>
-      <c r="D6" s="14" t="s">
+      <c r="D6" s="45" t="s">
         <v>32</v>
       </c>
-      <c r="E6" s="70"/>
-      <c r="F6" s="71"/>
-      <c r="G6" s="70"/>
-      <c r="H6" s="72"/>
-    </row>
-    <row r="7" spans="1:8" ht="36" customHeight="1">
-      <c r="A7" s="53"/>
-      <c r="B7" s="60"/>
-      <c r="C7" s="13" t="s">
+      <c r="E6" s="46"/>
+      <c r="F6" s="47"/>
+      <c r="G6" s="46"/>
+      <c r="H6" s="48"/>
+    </row>
+    <row r="7" spans="1:8" ht="57" customHeight="1">
+      <c r="A7" s="49"/>
+      <c r="B7" s="50"/>
+      <c r="C7" s="44" t="s">
         <v>33</v>
       </c>
-      <c r="D7" s="14" t="s">
+      <c r="D7" s="45" t="s">
         <v>34</v>
       </c>
-      <c r="E7" s="70"/>
-      <c r="F7" s="71"/>
-      <c r="G7" s="70"/>
-      <c r="H7" s="72"/>
-    </row>
-    <row r="8" spans="1:8" ht="23" customHeight="1">
-      <c r="A8" s="53"/>
-      <c r="B8" s="59" t="s">
+      <c r="E7" s="46"/>
+      <c r="F7" s="47"/>
+      <c r="G7" s="46"/>
+      <c r="H7" s="48"/>
+    </row>
+    <row r="8" spans="1:8" ht="57" customHeight="1">
+      <c r="A8" s="49"/>
+      <c r="B8" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="C8" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="D8" s="14" t="s">
+      <c r="D8" s="45" t="s">
         <v>37</v>
       </c>
-      <c r="E8" s="70"/>
-      <c r="F8" s="71"/>
-      <c r="G8" s="70"/>
-      <c r="H8" s="72"/>
-    </row>
-    <row r="9" spans="1:8" ht="29" customHeight="1">
-      <c r="A9" s="53"/>
-      <c r="B9" s="60"/>
-      <c r="C9" s="13" t="s">
+      <c r="E8" s="46"/>
+      <c r="F8" s="47"/>
+      <c r="G8" s="46"/>
+      <c r="H8" s="48"/>
+    </row>
+    <row r="9" spans="1:8" ht="57" customHeight="1">
+      <c r="A9" s="49"/>
+      <c r="B9" s="50"/>
+      <c r="C9" s="44" t="s">
         <v>38</v>
       </c>
-      <c r="D9" s="14" t="s">
+      <c r="D9" s="45" t="s">
         <v>39</v>
       </c>
-      <c r="E9" s="70"/>
-      <c r="F9" s="71"/>
-      <c r="G9" s="70"/>
-      <c r="H9" s="72"/>
-    </row>
-    <row r="10" spans="1:8" ht="31" customHeight="1">
-      <c r="A10" s="53"/>
-      <c r="B10" s="60"/>
-      <c r="C10" s="13" t="s">
+      <c r="E9" s="46"/>
+      <c r="F9" s="47"/>
+      <c r="G9" s="46"/>
+      <c r="H9" s="48"/>
+    </row>
+    <row r="10" spans="1:8" ht="57" customHeight="1">
+      <c r="A10" s="49"/>
+      <c r="B10" s="50"/>
+      <c r="C10" s="44" t="s">
         <v>40</v>
       </c>
-      <c r="D10" s="14" t="s">
+      <c r="D10" s="45" t="s">
         <v>41</v>
       </c>
-      <c r="E10" s="70"/>
-      <c r="F10" s="71"/>
-      <c r="G10" s="70"/>
-      <c r="H10" s="72"/>
-    </row>
-    <row r="11" spans="1:8" ht="25" customHeight="1">
-      <c r="A11" s="53"/>
-      <c r="B11" s="60"/>
-      <c r="C11" s="13" t="s">
+      <c r="E10" s="46"/>
+      <c r="F10" s="47"/>
+      <c r="G10" s="46"/>
+      <c r="H10" s="48"/>
+    </row>
+    <row r="11" spans="1:8" ht="57" customHeight="1">
+      <c r="A11" s="49"/>
+      <c r="B11" s="50"/>
+      <c r="C11" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="D11" s="14" t="s">
+      <c r="D11" s="45" t="s">
         <v>43</v>
       </c>
-      <c r="E11" s="70"/>
-      <c r="F11" s="71"/>
-      <c r="G11" s="70"/>
-      <c r="H11" s="72"/>
-    </row>
-    <row r="12" spans="1:8" ht="33" customHeight="1">
-      <c r="A12" s="51"/>
-      <c r="B12" s="61"/>
-      <c r="C12" s="16" t="s">
+      <c r="E11" s="46"/>
+      <c r="F11" s="47"/>
+      <c r="G11" s="46"/>
+      <c r="H11" s="48"/>
+    </row>
+    <row r="12" spans="1:8" ht="57" customHeight="1">
+      <c r="A12" s="39"/>
+      <c r="B12" s="51"/>
+      <c r="C12" s="52" t="s">
         <v>44</v>
       </c>
-      <c r="D12" s="17" t="s">
+      <c r="D12" s="53" t="s">
         <v>45</v>
       </c>
-      <c r="E12" s="70"/>
-      <c r="F12" s="71"/>
-      <c r="G12" s="70"/>
-      <c r="H12" s="72"/>
-    </row>
-    <row r="13" spans="1:8" ht="31" customHeight="1">
+      <c r="E12" s="46"/>
+      <c r="F12" s="47"/>
+      <c r="G12" s="46"/>
+      <c r="H12" s="48"/>
+    </row>
+    <row r="13" spans="1:8" ht="57" customHeight="1">
       <c r="A13" s="54"/>
-      <c r="B13" s="61" t="s">
+      <c r="B13" s="51" t="s">
         <v>46</v>
       </c>
-      <c r="C13" s="16" t="s">
+      <c r="C13" s="52" t="s">
         <v>47</v>
       </c>
-      <c r="D13" s="17" t="s">
+      <c r="D13" s="53" t="s">
         <v>48</v>
       </c>
-      <c r="E13" s="70"/>
-      <c r="F13" s="71"/>
-      <c r="G13" s="70"/>
-      <c r="H13" s="72"/>
-    </row>
-    <row r="14" spans="1:8" ht="38" customHeight="1">
+      <c r="E13" s="46"/>
+      <c r="F13" s="47"/>
+      <c r="G13" s="46"/>
+      <c r="H13" s="48"/>
+    </row>
+    <row r="14" spans="1:8" ht="57" customHeight="1">
       <c r="A14" s="54"/>
-      <c r="B14" s="61" t="s">
+      <c r="B14" s="51" t="s">
         <v>49</v>
       </c>
-      <c r="C14" s="16" t="s">
+      <c r="C14" s="52" t="s">
         <v>50</v>
       </c>
-      <c r="D14" s="18" t="s">
+      <c r="D14" s="55" t="s">
         <v>51</v>
       </c>
-      <c r="E14" s="70"/>
-      <c r="F14" s="71"/>
-      <c r="G14" s="70"/>
-      <c r="H14" s="72"/>
-    </row>
-    <row r="15" spans="1:8" ht="25" customHeight="1">
-      <c r="A15" s="55" t="s">
+      <c r="E14" s="46"/>
+      <c r="F14" s="47"/>
+      <c r="G14" s="46"/>
+      <c r="H14" s="48"/>
+    </row>
+    <row r="15" spans="1:8" ht="57" customHeight="1">
+      <c r="A15" s="56" t="s">
         <v>52</v>
       </c>
-      <c r="B15" s="19" t="s">
+      <c r="B15" s="57" t="s">
         <v>53</v>
       </c>
-      <c r="C15" s="20" t="s">
+      <c r="C15" s="58" t="s">
         <v>54</v>
       </c>
-      <c r="D15" s="21" t="s">
+      <c r="D15" s="59" t="s">
         <v>55</v>
       </c>
-      <c r="E15" s="70"/>
-      <c r="F15" s="71"/>
-      <c r="G15" s="70"/>
-      <c r="H15" s="72"/>
-    </row>
-    <row r="16" spans="1:8" ht="33" customHeight="1">
-      <c r="A16" s="51"/>
-      <c r="B16" s="15" t="s">
+      <c r="E15" s="46"/>
+      <c r="F15" s="47"/>
+      <c r="G15" s="46"/>
+      <c r="H15" s="48"/>
+    </row>
+    <row r="16" spans="1:8" ht="57" customHeight="1">
+      <c r="A16" s="39"/>
+      <c r="B16" s="60" t="s">
         <v>56</v>
       </c>
-      <c r="C16" s="16" t="s">
+      <c r="C16" s="52" t="s">
         <v>57</v>
       </c>
-      <c r="D16" s="18" t="s">
+      <c r="D16" s="55" t="s">
         <v>58</v>
       </c>
-      <c r="E16" s="70"/>
-      <c r="F16" s="71"/>
-      <c r="G16" s="70"/>
-      <c r="H16" s="72"/>
-    </row>
-    <row r="17" spans="1:8" ht="27" customHeight="1">
-      <c r="A17" s="51"/>
-      <c r="B17" s="15" t="s">
+      <c r="E16" s="46"/>
+      <c r="F16" s="47"/>
+      <c r="G16" s="46"/>
+      <c r="H16" s="48"/>
+    </row>
+    <row r="17" spans="1:8" ht="57" customHeight="1">
+      <c r="A17" s="39"/>
+      <c r="B17" s="60" t="s">
         <v>59</v>
       </c>
-      <c r="C17" s="22"/>
-      <c r="D17" s="23" t="s">
+      <c r="C17" s="61"/>
+      <c r="D17" s="62" t="s">
         <v>60</v>
       </c>
-      <c r="E17" s="70"/>
-      <c r="F17" s="71"/>
-      <c r="G17" s="70"/>
-      <c r="H17" s="72"/>
-    </row>
-    <row r="18" spans="1:8" ht="25" customHeight="1">
-      <c r="A18" s="51"/>
-      <c r="B18" s="62" t="s">
+      <c r="E17" s="46"/>
+      <c r="F17" s="47"/>
+      <c r="G17" s="46"/>
+      <c r="H17" s="48"/>
+    </row>
+    <row r="18" spans="1:8" ht="57" customHeight="1">
+      <c r="A18" s="39"/>
+      <c r="B18" s="63" t="s">
         <v>61</v>
       </c>
-      <c r="C18" s="13" t="s">
+      <c r="C18" s="44" t="s">
         <v>62</v>
       </c>
-      <c r="D18" s="24" t="s">
+      <c r="D18" s="64" t="s">
         <v>63</v>
       </c>
-      <c r="E18" s="70"/>
-      <c r="F18" s="71"/>
-      <c r="G18" s="70"/>
-      <c r="H18" s="72"/>
-    </row>
-    <row r="19" spans="1:8" ht="24" customHeight="1">
-      <c r="A19" s="51"/>
-      <c r="B19" s="63"/>
-      <c r="C19" s="13" t="s">
+      <c r="E18" s="46"/>
+      <c r="F18" s="47"/>
+      <c r="G18" s="46"/>
+      <c r="H18" s="48"/>
+    </row>
+    <row r="19" spans="1:8" ht="57" customHeight="1">
+      <c r="A19" s="39"/>
+      <c r="B19" s="65"/>
+      <c r="C19" s="44" t="s">
         <v>64</v>
       </c>
-      <c r="D19" s="24" t="s">
+      <c r="D19" s="64" t="s">
         <v>65</v>
       </c>
-      <c r="E19" s="70"/>
-      <c r="F19" s="71"/>
-      <c r="G19" s="70"/>
-      <c r="H19" s="72"/>
-    </row>
-    <row r="20" spans="1:8" ht="36" customHeight="1">
-      <c r="A20" s="51"/>
-      <c r="B20" s="63"/>
-      <c r="C20" s="13" t="s">
+      <c r="E19" s="46"/>
+      <c r="F19" s="47"/>
+      <c r="G19" s="46"/>
+      <c r="H19" s="48"/>
+    </row>
+    <row r="20" spans="1:8" ht="57" customHeight="1">
+      <c r="A20" s="39"/>
+      <c r="B20" s="65"/>
+      <c r="C20" s="44" t="s">
         <v>66</v>
       </c>
-      <c r="D20" s="24" t="s">
+      <c r="D20" s="64" t="s">
         <v>67</v>
       </c>
-      <c r="E20" s="70"/>
-      <c r="F20" s="71"/>
-      <c r="G20" s="70"/>
-      <c r="H20" s="72"/>
-    </row>
-    <row r="21" spans="1:8" ht="43" customHeight="1">
-      <c r="A21" s="51"/>
-      <c r="B21" s="63"/>
-      <c r="C21" s="13" t="s">
+      <c r="E20" s="46"/>
+      <c r="F20" s="47"/>
+      <c r="G20" s="46"/>
+      <c r="H20" s="48"/>
+    </row>
+    <row r="21" spans="1:8" ht="57" customHeight="1">
+      <c r="A21" s="39"/>
+      <c r="B21" s="65"/>
+      <c r="C21" s="44" t="s">
         <v>68</v>
       </c>
-      <c r="D21" s="24" t="s">
+      <c r="D21" s="64" t="s">
         <v>69</v>
       </c>
-      <c r="E21" s="70"/>
-      <c r="F21" s="71"/>
-      <c r="G21" s="70"/>
-      <c r="H21" s="72"/>
-    </row>
-    <row r="22" spans="1:8" ht="33" customHeight="1">
-      <c r="A22" s="51"/>
-      <c r="B22" s="63"/>
-      <c r="C22" s="13" t="s">
+      <c r="E21" s="46"/>
+      <c r="F21" s="47"/>
+      <c r="G21" s="46"/>
+      <c r="H21" s="48"/>
+    </row>
+    <row r="22" spans="1:8" ht="57" customHeight="1">
+      <c r="A22" s="39"/>
+      <c r="B22" s="65"/>
+      <c r="C22" s="44" t="s">
         <v>70</v>
       </c>
-      <c r="D22" s="24" t="s">
+      <c r="D22" s="64" t="s">
         <v>71</v>
       </c>
-      <c r="E22" s="70"/>
-      <c r="F22" s="71"/>
-      <c r="G22" s="70"/>
-      <c r="H22" s="72"/>
-    </row>
-    <row r="23" spans="1:8" ht="33" customHeight="1">
-      <c r="A23" s="51"/>
-      <c r="B23" s="63"/>
-      <c r="C23" s="13" t="s">
+      <c r="E22" s="46"/>
+      <c r="F22" s="47"/>
+      <c r="G22" s="46"/>
+      <c r="H22" s="48"/>
+    </row>
+    <row r="23" spans="1:8" ht="57" customHeight="1">
+      <c r="A23" s="39"/>
+      <c r="B23" s="65"/>
+      <c r="C23" s="44" t="s">
         <v>72</v>
       </c>
-      <c r="D23" s="24" t="s">
+      <c r="D23" s="64" t="s">
         <v>73</v>
       </c>
-      <c r="E23" s="70"/>
-      <c r="F23" s="71"/>
-      <c r="G23" s="70"/>
-      <c r="H23" s="72"/>
-    </row>
-    <row r="24" spans="1:8" ht="27" customHeight="1">
-      <c r="A24" s="51"/>
-      <c r="B24" s="63"/>
-      <c r="C24" s="13" t="s">
+      <c r="E23" s="46"/>
+      <c r="F23" s="47"/>
+      <c r="G23" s="46"/>
+      <c r="H23" s="48"/>
+    </row>
+    <row r="24" spans="1:8" ht="57" customHeight="1">
+      <c r="A24" s="39"/>
+      <c r="B24" s="65"/>
+      <c r="C24" s="44" t="s">
         <v>74</v>
       </c>
-      <c r="D24" s="24" t="s">
+      <c r="D24" s="64" t="s">
         <v>75</v>
       </c>
-      <c r="E24" s="70"/>
-      <c r="F24" s="71"/>
-      <c r="G24" s="70"/>
-      <c r="H24" s="72"/>
-    </row>
-    <row r="25" spans="1:8" ht="38" customHeight="1">
-      <c r="A25" s="51"/>
-      <c r="B25" s="63"/>
-      <c r="C25" s="13" t="s">
+      <c r="E24" s="46"/>
+      <c r="F24" s="47"/>
+      <c r="G24" s="46"/>
+      <c r="H24" s="48"/>
+    </row>
+    <row r="25" spans="1:8" ht="57" customHeight="1">
+      <c r="A25" s="39"/>
+      <c r="B25" s="65"/>
+      <c r="C25" s="44" t="s">
         <v>76</v>
       </c>
-      <c r="D25" s="24" t="s">
+      <c r="D25" s="64" t="s">
         <v>77</v>
       </c>
-      <c r="E25" s="70"/>
-      <c r="F25" s="71"/>
-      <c r="G25" s="70"/>
-      <c r="H25" s="72"/>
-    </row>
-    <row r="26" spans="1:8" ht="27" customHeight="1">
-      <c r="A26" s="51"/>
-      <c r="B26" s="63"/>
-      <c r="C26" s="13" t="s">
+      <c r="E25" s="46"/>
+      <c r="F25" s="47"/>
+      <c r="G25" s="46"/>
+      <c r="H25" s="48"/>
+    </row>
+    <row r="26" spans="1:8" ht="57" customHeight="1">
+      <c r="A26" s="39"/>
+      <c r="B26" s="65"/>
+      <c r="C26" s="44" t="s">
         <v>78</v>
       </c>
-      <c r="D26" s="24" t="s">
+      <c r="D26" s="64" t="s">
         <v>79</v>
       </c>
-      <c r="E26" s="70"/>
-      <c r="F26" s="71"/>
-      <c r="G26" s="70"/>
-      <c r="H26" s="72"/>
-    </row>
-    <row r="27" spans="1:8" ht="26">
-      <c r="A27" s="51"/>
-      <c r="B27" s="63"/>
-      <c r="C27" s="13" t="s">
+      <c r="E26" s="46"/>
+      <c r="F26" s="47"/>
+      <c r="G26" s="46"/>
+      <c r="H26" s="48"/>
+    </row>
+    <row r="27" spans="1:8" ht="57" customHeight="1">
+      <c r="A27" s="39"/>
+      <c r="B27" s="65"/>
+      <c r="C27" s="44" t="s">
         <v>80</v>
       </c>
-      <c r="D27" s="24" t="s">
+      <c r="D27" s="64" t="s">
         <v>81</v>
       </c>
-      <c r="E27" s="70"/>
-      <c r="F27" s="71"/>
-      <c r="G27" s="70"/>
-      <c r="H27" s="72"/>
-    </row>
-    <row r="28" spans="1:8" ht="61" customHeight="1">
-      <c r="A28" s="51"/>
-      <c r="B28" s="64"/>
-      <c r="C28" s="13" t="s">
+      <c r="E27" s="46"/>
+      <c r="F27" s="47"/>
+      <c r="G27" s="46"/>
+      <c r="H27" s="48"/>
+    </row>
+    <row r="28" spans="1:8" ht="57" customHeight="1">
+      <c r="A28" s="39"/>
+      <c r="B28" s="66"/>
+      <c r="C28" s="44" t="s">
         <v>82</v>
       </c>
-      <c r="D28" s="24" t="s">
+      <c r="D28" s="64" t="s">
         <v>83</v>
       </c>
-      <c r="E28" s="70"/>
-      <c r="F28" s="71"/>
-      <c r="G28" s="70"/>
-      <c r="H28" s="72"/>
-    </row>
-    <row r="29" spans="1:8" ht="30" customHeight="1">
-      <c r="A29" s="42" t="s">
+      <c r="E28" s="46"/>
+      <c r="F28" s="47"/>
+      <c r="G28" s="46"/>
+      <c r="H28" s="48"/>
+    </row>
+    <row r="29" spans="1:8" ht="57" customHeight="1">
+      <c r="A29" s="67" t="s">
         <v>84</v>
       </c>
-      <c r="B29" s="43"/>
-      <c r="C29" s="43"/>
-      <c r="D29" s="44"/>
-      <c r="E29" s="70"/>
-      <c r="F29" s="71"/>
-      <c r="G29" s="70"/>
-      <c r="H29" s="72"/>
-    </row>
-    <row r="30" spans="1:8" ht="21" customHeight="1">
-      <c r="A30" s="56" t="s">
+      <c r="B29" s="68"/>
+      <c r="C29" s="68"/>
+      <c r="D29" s="68"/>
+      <c r="E29" s="46"/>
+      <c r="F29" s="47"/>
+      <c r="G29" s="46"/>
+      <c r="H29" s="48"/>
+    </row>
+    <row r="30" spans="1:8" ht="57" customHeight="1">
+      <c r="A30" s="69" t="s">
         <v>85</v>
       </c>
-      <c r="B30" s="58" t="s">
+      <c r="B30" s="70" t="s">
         <v>86</v>
       </c>
-      <c r="C30" s="25" t="s">
+      <c r="C30" s="71" t="s">
         <v>87</v>
       </c>
-      <c r="D30" s="26" t="s">
+      <c r="D30" s="72" t="s">
         <v>88</v>
       </c>
-      <c r="E30" s="70"/>
-      <c r="F30" s="71"/>
-      <c r="G30" s="70"/>
-      <c r="H30" s="72"/>
-    </row>
-    <row r="31" spans="1:8" ht="27" customHeight="1">
-      <c r="A31" s="56"/>
-      <c r="B31" s="58"/>
-      <c r="C31" s="27" t="s">
+      <c r="E30" s="46"/>
+      <c r="F30" s="47"/>
+      <c r="G30" s="46"/>
+      <c r="H30" s="48"/>
+    </row>
+    <row r="31" spans="1:8" ht="57" customHeight="1">
+      <c r="A31" s="69"/>
+      <c r="B31" s="70"/>
+      <c r="C31" s="73" t="s">
         <v>89</v>
       </c>
-      <c r="D31" s="28" t="s">
+      <c r="D31" s="74" t="s">
         <v>90</v>
       </c>
-      <c r="E31" s="70"/>
-      <c r="F31" s="71"/>
-      <c r="G31" s="70"/>
-      <c r="H31" s="72"/>
-    </row>
-    <row r="32" spans="1:8" ht="30" customHeight="1">
-      <c r="A32" s="56"/>
-      <c r="B32" s="58" t="s">
+      <c r="E31" s="46"/>
+      <c r="F31" s="47"/>
+      <c r="G31" s="46"/>
+      <c r="H31" s="48"/>
+    </row>
+    <row r="32" spans="1:8" ht="57" customHeight="1">
+      <c r="A32" s="69"/>
+      <c r="B32" s="70" t="s">
         <v>91</v>
       </c>
-      <c r="C32" s="25" t="s">
+      <c r="C32" s="71" t="s">
         <v>92</v>
       </c>
-      <c r="D32" s="29" t="s">
+      <c r="D32" s="75" t="s">
         <v>93</v>
       </c>
-      <c r="E32" s="70"/>
-      <c r="F32" s="71"/>
-      <c r="G32" s="70"/>
-      <c r="H32" s="72"/>
-    </row>
-    <row r="33" spans="1:8" ht="37" customHeight="1">
-      <c r="A33" s="56"/>
-      <c r="B33" s="58"/>
-      <c r="C33" s="25" t="s">
+      <c r="E32" s="46"/>
+      <c r="F32" s="47"/>
+      <c r="G32" s="46"/>
+      <c r="H32" s="48"/>
+    </row>
+    <row r="33" spans="1:8" ht="57" customHeight="1">
+      <c r="A33" s="69"/>
+      <c r="B33" s="70"/>
+      <c r="C33" s="71" t="s">
         <v>94</v>
       </c>
-      <c r="D33" s="26" t="s">
+      <c r="D33" s="72" t="s">
         <v>95</v>
       </c>
-      <c r="E33" s="70"/>
-      <c r="F33" s="71"/>
-      <c r="G33" s="70"/>
-      <c r="H33" s="72"/>
-    </row>
-    <row r="34" spans="1:8" ht="27" customHeight="1">
-      <c r="A34" s="56"/>
-      <c r="B34" s="65"/>
-      <c r="C34" s="25" t="s">
+      <c r="E33" s="46"/>
+      <c r="F33" s="47"/>
+      <c r="G33" s="46"/>
+      <c r="H33" s="48"/>
+    </row>
+    <row r="34" spans="1:8" ht="57" customHeight="1">
+      <c r="A34" s="69"/>
+      <c r="B34" s="76"/>
+      <c r="C34" s="71" t="s">
         <v>70</v>
       </c>
-      <c r="D34" s="26" t="s">
+      <c r="D34" s="72" t="s">
         <v>96</v>
       </c>
-      <c r="E34" s="70"/>
-      <c r="F34" s="71"/>
-      <c r="G34" s="70"/>
-      <c r="H34" s="72"/>
-    </row>
-    <row r="35" spans="1:8" ht="24" customHeight="1">
-      <c r="A35" s="56"/>
-      <c r="B35" s="58" t="s">
+      <c r="E34" s="46"/>
+      <c r="F34" s="47"/>
+      <c r="G34" s="46"/>
+      <c r="H34" s="48"/>
+    </row>
+    <row r="35" spans="1:8" ht="57" customHeight="1">
+      <c r="A35" s="69"/>
+      <c r="B35" s="70" t="s">
         <v>97</v>
       </c>
-      <c r="C35" s="25" t="s">
+      <c r="C35" s="71" t="s">
         <v>98</v>
       </c>
-      <c r="D35" s="26" t="s">
+      <c r="D35" s="72" t="s">
         <v>99</v>
       </c>
-      <c r="E35" s="70"/>
-      <c r="F35" s="71"/>
-      <c r="G35" s="70"/>
-      <c r="H35" s="72"/>
-    </row>
-    <row r="36" spans="1:8" ht="25" customHeight="1">
-      <c r="A36" s="56"/>
-      <c r="B36" s="65"/>
-      <c r="C36" s="25" t="s">
+      <c r="E35" s="46"/>
+      <c r="F35" s="47"/>
+      <c r="G35" s="46"/>
+      <c r="H35" s="48"/>
+    </row>
+    <row r="36" spans="1:8" ht="57" customHeight="1">
+      <c r="A36" s="69"/>
+      <c r="B36" s="76"/>
+      <c r="C36" s="71" t="s">
         <v>100</v>
       </c>
-      <c r="D36" s="26" t="s">
+      <c r="D36" s="72" t="s">
         <v>101</v>
       </c>
-      <c r="E36" s="70"/>
-      <c r="F36" s="71"/>
-      <c r="G36" s="70"/>
-      <c r="H36" s="72"/>
-    </row>
-    <row r="37" spans="1:8" ht="32" customHeight="1">
-      <c r="A37" s="57"/>
-      <c r="B37" s="58" t="s">
+      <c r="E36" s="46"/>
+      <c r="F36" s="47"/>
+      <c r="G36" s="46"/>
+      <c r="H36" s="48"/>
+    </row>
+    <row r="37" spans="1:8" ht="57" customHeight="1">
+      <c r="A37" s="76"/>
+      <c r="B37" s="70" t="s">
         <v>102</v>
       </c>
-      <c r="C37" s="25" t="s">
+      <c r="C37" s="71" t="s">
         <v>103</v>
       </c>
-      <c r="D37" s="26" t="s">
+      <c r="D37" s="72" t="s">
         <v>104</v>
       </c>
-      <c r="E37" s="70"/>
-      <c r="F37" s="71"/>
-      <c r="G37" s="70"/>
-      <c r="H37" s="72"/>
-    </row>
-    <row r="38" spans="1:8" ht="35" customHeight="1">
-      <c r="A38" s="57"/>
-      <c r="B38" s="58"/>
-      <c r="C38" s="25" t="s">
+      <c r="E37" s="46"/>
+      <c r="F37" s="47"/>
+      <c r="G37" s="46"/>
+      <c r="H37" s="48"/>
+    </row>
+    <row r="38" spans="1:8" ht="57" customHeight="1">
+      <c r="A38" s="76"/>
+      <c r="B38" s="70"/>
+      <c r="C38" s="71" t="s">
         <v>105</v>
       </c>
-      <c r="D38" s="26" t="s">
+      <c r="D38" s="72" t="s">
         <v>106</v>
       </c>
-      <c r="E38" s="70"/>
-      <c r="F38" s="71"/>
-      <c r="G38" s="70"/>
-      <c r="H38" s="72"/>
-    </row>
-    <row r="39" spans="1:8" ht="32" customHeight="1">
-      <c r="A39" s="57"/>
-      <c r="B39" s="65"/>
-      <c r="C39" s="25" t="s">
+      <c r="E38" s="46"/>
+      <c r="F38" s="47"/>
+      <c r="G38" s="46"/>
+      <c r="H38" s="48"/>
+    </row>
+    <row r="39" spans="1:8" ht="57" customHeight="1">
+      <c r="A39" s="76"/>
+      <c r="B39" s="76"/>
+      <c r="C39" s="71" t="s">
         <v>107</v>
       </c>
-      <c r="D39" s="26" t="s">
+      <c r="D39" s="72" t="s">
         <v>108</v>
       </c>
-      <c r="E39" s="70"/>
-      <c r="F39" s="71"/>
-      <c r="G39" s="70"/>
-      <c r="H39" s="72"/>
-    </row>
-    <row r="40" spans="1:8" ht="45" customHeight="1">
-      <c r="A40" s="58" t="s">
+      <c r="E39" s="46"/>
+      <c r="F39" s="47"/>
+      <c r="G39" s="46"/>
+      <c r="H39" s="48"/>
+    </row>
+    <row r="40" spans="1:8" ht="57" customHeight="1">
+      <c r="A40" s="70" t="s">
         <v>109</v>
       </c>
-      <c r="B40" s="56" t="s">
+      <c r="B40" s="69" t="s">
         <v>110</v>
       </c>
-      <c r="C40" s="30" t="s">
+      <c r="C40" s="77" t="s">
         <v>111</v>
       </c>
-      <c r="D40" s="26" t="s">
+      <c r="D40" s="72" t="s">
         <v>112</v>
       </c>
-      <c r="E40" s="70"/>
-      <c r="F40" s="71"/>
-      <c r="G40" s="70"/>
-      <c r="H40" s="72"/>
-    </row>
-    <row r="41" spans="1:8" ht="33" customHeight="1">
-      <c r="A41" s="58"/>
-      <c r="B41" s="56"/>
-      <c r="C41" s="31" t="s">
+      <c r="E40" s="46"/>
+      <c r="F40" s="47"/>
+      <c r="G40" s="46"/>
+      <c r="H40" s="48"/>
+    </row>
+    <row r="41" spans="1:8" ht="57" customHeight="1">
+      <c r="A41" s="70"/>
+      <c r="B41" s="69"/>
+      <c r="C41" s="78" t="s">
         <v>113</v>
       </c>
-      <c r="D41" s="26" t="s">
+      <c r="D41" s="72" t="s">
         <v>114</v>
       </c>
-      <c r="E41" s="70"/>
-      <c r="F41" s="71"/>
-      <c r="G41" s="70"/>
-      <c r="H41" s="72"/>
-    </row>
-    <row r="42" spans="1:8" ht="42" customHeight="1">
-      <c r="A42" s="58"/>
-      <c r="B42" s="56"/>
-      <c r="C42" s="31" t="s">
+      <c r="E41" s="46"/>
+      <c r="F41" s="47"/>
+      <c r="G41" s="46"/>
+      <c r="H41" s="48"/>
+    </row>
+    <row r="42" spans="1:8" ht="57" customHeight="1">
+      <c r="A42" s="70"/>
+      <c r="B42" s="69"/>
+      <c r="C42" s="78" t="s">
         <v>115</v>
       </c>
-      <c r="D42" s="26" t="s">
+      <c r="D42" s="72" t="s">
         <v>116</v>
       </c>
-      <c r="E42" s="70"/>
-      <c r="F42" s="71"/>
-      <c r="G42" s="70"/>
-      <c r="H42" s="72"/>
-    </row>
-    <row r="43" spans="1:8" ht="42" customHeight="1">
-      <c r="A43" s="45" t="s">
+      <c r="E42" s="46"/>
+      <c r="F42" s="47"/>
+      <c r="G42" s="46"/>
+      <c r="H42" s="48"/>
+    </row>
+    <row r="43" spans="1:8" ht="57" customHeight="1">
+      <c r="A43" s="79" t="s">
         <v>117</v>
       </c>
-      <c r="B43" s="45"/>
-      <c r="C43" s="46"/>
-      <c r="D43" s="47"/>
-      <c r="E43" s="48"/>
-      <c r="F43" s="49"/>
-      <c r="G43" s="48"/>
-      <c r="H43" s="48"/>
+      <c r="B43" s="79"/>
+      <c r="C43" s="80"/>
+      <c r="D43" s="81"/>
+      <c r="E43" s="82"/>
+      <c r="F43" s="83"/>
+      <c r="G43" s="82"/>
+      <c r="H43" s="82"/>
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="G5:G42"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="H5:H42"/>
-    <mergeCell ref="A1:H2"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="E5:E42"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="F5:F42"/>
-    <mergeCell ref="A29:D29"/>
     <mergeCell ref="A43:H43"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="A5:A14"/>
@@ -2372,8 +2337,20 @@
     <mergeCell ref="B35:B36"/>
     <mergeCell ref="B37:B39"/>
     <mergeCell ref="B40:B42"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="G5:G42"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="H5:H42"/>
+    <mergeCell ref="A1:H2"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="E5:E42"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="F5:F42"/>
+    <mergeCell ref="A29:D29"/>
   </mergeCells>
-  <phoneticPr fontId="28" type="noConversion"/>
+  <phoneticPr fontId="17" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
@@ -2387,7 +2364,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
@@ -2404,21 +2381,21 @@
   <sheetData>
     <row r="1" spans="1:7" ht="59" customHeight="1"/>
     <row r="2" spans="1:7" s="1" customFormat="1" ht="41" customHeight="1">
-      <c r="A2" s="74" t="s">
+      <c r="A2" s="29" t="s">
         <v>118</v>
       </c>
-      <c r="B2" s="74"/>
-      <c r="C2" s="74"/>
-      <c r="D2" s="68" t="s">
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="68" t="s">
+      <c r="E2" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="F2" s="68" t="s">
+      <c r="F2" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="G2" s="68" t="s">
+      <c r="G2" s="23" t="s">
         <v>23</v>
       </c>
     </row>
@@ -2432,284 +2409,284 @@
       <c r="C3" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="D3" s="69"/>
-      <c r="E3" s="69"/>
-      <c r="F3" s="69"/>
-      <c r="G3" s="69"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="24"/>
     </row>
     <row r="4" spans="1:7" s="1" customFormat="1" ht="22" customHeight="1">
-      <c r="A4" s="76" t="s">
+      <c r="A4" s="31" t="s">
         <v>122</v>
       </c>
-      <c r="B4" s="79" t="s">
+      <c r="B4" s="34" t="s">
         <v>123</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="D4" s="70" t="s">
+      <c r="D4" s="25" t="s">
         <v>125</v>
       </c>
-      <c r="E4" s="71" t="s">
+      <c r="E4" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="F4" s="70" t="s">
+      <c r="F4" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="G4" s="72" t="s">
+      <c r="G4" s="26" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="5" spans="1:7" s="1" customFormat="1" ht="28" customHeight="1">
-      <c r="A5" s="77"/>
-      <c r="B5" s="79"/>
+      <c r="A5" s="32"/>
+      <c r="B5" s="34"/>
       <c r="C5" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="D5" s="70"/>
-      <c r="E5" s="71"/>
-      <c r="F5" s="70"/>
-      <c r="G5" s="72"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="28"/>
+      <c r="F5" s="25"/>
+      <c r="G5" s="26"/>
     </row>
     <row r="6" spans="1:7" s="1" customFormat="1" ht="28" customHeight="1">
-      <c r="A6" s="77"/>
+      <c r="A6" s="32"/>
       <c r="B6" s="7" t="s">
         <v>128</v>
       </c>
       <c r="C6" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="D6" s="70"/>
-      <c r="E6" s="71"/>
-      <c r="F6" s="70"/>
-      <c r="G6" s="72"/>
+      <c r="D6" s="25"/>
+      <c r="E6" s="28"/>
+      <c r="F6" s="25"/>
+      <c r="G6" s="26"/>
     </row>
     <row r="7" spans="1:7" s="1" customFormat="1" ht="28" customHeight="1">
-      <c r="A7" s="77"/>
+      <c r="A7" s="32"/>
       <c r="B7" s="7" t="s">
         <v>130</v>
       </c>
       <c r="C7" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="D7" s="70"/>
-      <c r="E7" s="71"/>
-      <c r="F7" s="70"/>
-      <c r="G7" s="72"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="26"/>
     </row>
     <row r="8" spans="1:7" s="1" customFormat="1" ht="28" customHeight="1">
-      <c r="A8" s="77"/>
+      <c r="A8" s="32"/>
       <c r="B8" s="6"/>
       <c r="C8" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="D8" s="70"/>
-      <c r="E8" s="71"/>
-      <c r="F8" s="70"/>
-      <c r="G8" s="72"/>
+      <c r="D8" s="25"/>
+      <c r="E8" s="28"/>
+      <c r="F8" s="25"/>
+      <c r="G8" s="26"/>
     </row>
     <row r="9" spans="1:7" s="1" customFormat="1" ht="22" customHeight="1">
-      <c r="A9" s="77"/>
-      <c r="B9" s="76" t="s">
+      <c r="A9" s="32"/>
+      <c r="B9" s="31" t="s">
         <v>133</v>
       </c>
       <c r="C9" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="D9" s="70"/>
-      <c r="E9" s="71"/>
-      <c r="F9" s="70"/>
-      <c r="G9" s="72"/>
+      <c r="D9" s="25"/>
+      <c r="E9" s="28"/>
+      <c r="F9" s="25"/>
+      <c r="G9" s="26"/>
     </row>
     <row r="10" spans="1:7" s="1" customFormat="1" ht="22" customHeight="1">
-      <c r="A10" s="77"/>
-      <c r="B10" s="77"/>
+      <c r="A10" s="32"/>
+      <c r="B10" s="32"/>
       <c r="C10" s="8" t="s">
         <v>135</v>
       </c>
-      <c r="D10" s="70"/>
-      <c r="E10" s="71"/>
-      <c r="F10" s="70"/>
-      <c r="G10" s="72"/>
+      <c r="D10" s="25"/>
+      <c r="E10" s="28"/>
+      <c r="F10" s="25"/>
+      <c r="G10" s="26"/>
     </row>
     <row r="11" spans="1:7" s="1" customFormat="1" ht="22" customHeight="1">
-      <c r="A11" s="77"/>
-      <c r="B11" s="77"/>
+      <c r="A11" s="32"/>
+      <c r="B11" s="32"/>
       <c r="C11" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="D11" s="70"/>
-      <c r="E11" s="71"/>
-      <c r="F11" s="70"/>
-      <c r="G11" s="72"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="25"/>
+      <c r="G11" s="26"/>
     </row>
     <row r="12" spans="1:7" s="1" customFormat="1" ht="22" customHeight="1">
-      <c r="A12" s="77"/>
-      <c r="B12" s="80"/>
+      <c r="A12" s="32"/>
+      <c r="B12" s="35"/>
       <c r="C12" s="8" t="s">
         <v>137</v>
       </c>
-      <c r="D12" s="70"/>
-      <c r="E12" s="71"/>
-      <c r="F12" s="70"/>
-      <c r="G12" s="72"/>
+      <c r="D12" s="25"/>
+      <c r="E12" s="28"/>
+      <c r="F12" s="25"/>
+      <c r="G12" s="26"/>
     </row>
     <row r="13" spans="1:7" s="1" customFormat="1" ht="22" customHeight="1">
-      <c r="A13" s="77"/>
-      <c r="B13" s="80"/>
+      <c r="A13" s="32"/>
+      <c r="B13" s="35"/>
       <c r="C13" s="8" t="s">
         <v>138</v>
       </c>
-      <c r="D13" s="70"/>
-      <c r="E13" s="71"/>
-      <c r="F13" s="70"/>
-      <c r="G13" s="72"/>
+      <c r="D13" s="25"/>
+      <c r="E13" s="28"/>
+      <c r="F13" s="25"/>
+      <c r="G13" s="26"/>
     </row>
     <row r="14" spans="1:7" s="1" customFormat="1" ht="22" customHeight="1">
-      <c r="A14" s="77"/>
-      <c r="B14" s="80"/>
+      <c r="A14" s="32"/>
+      <c r="B14" s="35"/>
       <c r="C14" s="8" t="s">
         <v>139</v>
       </c>
-      <c r="D14" s="70"/>
-      <c r="E14" s="71"/>
-      <c r="F14" s="70"/>
-      <c r="G14" s="72"/>
+      <c r="D14" s="25"/>
+      <c r="E14" s="28"/>
+      <c r="F14" s="25"/>
+      <c r="G14" s="26"/>
     </row>
     <row r="15" spans="1:7" s="1" customFormat="1" ht="22" customHeight="1">
-      <c r="A15" s="77"/>
-      <c r="B15" s="80"/>
+      <c r="A15" s="32"/>
+      <c r="B15" s="35"/>
       <c r="C15" s="8" t="s">
         <v>156</v>
       </c>
-      <c r="D15" s="70"/>
-      <c r="E15" s="71"/>
-      <c r="F15" s="70"/>
-      <c r="G15" s="72"/>
+      <c r="D15" s="25"/>
+      <c r="E15" s="28"/>
+      <c r="F15" s="25"/>
+      <c r="G15" s="26"/>
     </row>
     <row r="16" spans="1:7" s="1" customFormat="1" ht="22" customHeight="1">
-      <c r="A16" s="77"/>
-      <c r="B16" s="80"/>
+      <c r="A16" s="32"/>
+      <c r="B16" s="35"/>
       <c r="C16" s="8" t="s">
         <v>157</v>
       </c>
-      <c r="D16" s="70"/>
-      <c r="E16" s="71"/>
-      <c r="F16" s="70"/>
-      <c r="G16" s="72"/>
+      <c r="D16" s="25"/>
+      <c r="E16" s="28"/>
+      <c r="F16" s="25"/>
+      <c r="G16" s="26"/>
     </row>
     <row r="17" spans="1:7" s="1" customFormat="1" ht="38">
-      <c r="A17" s="77"/>
-      <c r="B17" s="80"/>
+      <c r="A17" s="32"/>
+      <c r="B17" s="35"/>
       <c r="C17" s="8" t="s">
         <v>158</v>
       </c>
-      <c r="D17" s="70"/>
-      <c r="E17" s="71"/>
-      <c r="F17" s="70"/>
-      <c r="G17" s="72"/>
+      <c r="D17" s="25"/>
+      <c r="E17" s="28"/>
+      <c r="F17" s="25"/>
+      <c r="G17" s="26"/>
     </row>
     <row r="18" spans="1:7" s="1" customFormat="1" ht="19">
-      <c r="A18" s="77"/>
-      <c r="B18" s="80"/>
+      <c r="A18" s="32"/>
+      <c r="B18" s="35"/>
       <c r="C18" s="8" t="s">
         <v>160</v>
       </c>
-      <c r="D18" s="70"/>
-      <c r="E18" s="71"/>
-      <c r="F18" s="70"/>
-      <c r="G18" s="72"/>
+      <c r="D18" s="25"/>
+      <c r="E18" s="28"/>
+      <c r="F18" s="25"/>
+      <c r="G18" s="26"/>
     </row>
     <row r="19" spans="1:7" s="1" customFormat="1" ht="22" customHeight="1">
-      <c r="A19" s="77"/>
-      <c r="B19" s="80"/>
+      <c r="A19" s="32"/>
+      <c r="B19" s="35"/>
       <c r="C19" s="8" t="s">
         <v>159</v>
       </c>
-      <c r="D19" s="70"/>
-      <c r="E19" s="71"/>
-      <c r="F19" s="70"/>
-      <c r="G19" s="72"/>
+      <c r="D19" s="25"/>
+      <c r="E19" s="28"/>
+      <c r="F19" s="25"/>
+      <c r="G19" s="26"/>
     </row>
     <row r="20" spans="1:7" s="1" customFormat="1" ht="22" customHeight="1">
-      <c r="A20" s="77"/>
-      <c r="B20" s="76" t="s">
+      <c r="A20" s="32"/>
+      <c r="B20" s="31" t="s">
         <v>140</v>
       </c>
       <c r="C20" s="8" t="s">
         <v>141</v>
       </c>
-      <c r="D20" s="70"/>
-      <c r="E20" s="71"/>
-      <c r="F20" s="70"/>
-      <c r="G20" s="72"/>
+      <c r="D20" s="25"/>
+      <c r="E20" s="28"/>
+      <c r="F20" s="25"/>
+      <c r="G20" s="26"/>
     </row>
     <row r="21" spans="1:7" s="1" customFormat="1" ht="22" customHeight="1">
-      <c r="A21" s="77"/>
-      <c r="B21" s="77"/>
+      <c r="A21" s="32"/>
+      <c r="B21" s="32"/>
       <c r="C21" s="8" t="s">
         <v>142</v>
       </c>
-      <c r="D21" s="70"/>
-      <c r="E21" s="71"/>
-      <c r="F21" s="70"/>
-      <c r="G21" s="72"/>
+      <c r="D21" s="25"/>
+      <c r="E21" s="28"/>
+      <c r="F21" s="25"/>
+      <c r="G21" s="26"/>
     </row>
     <row r="22" spans="1:7" s="1" customFormat="1" ht="22" customHeight="1">
-      <c r="A22" s="77"/>
-      <c r="B22" s="77"/>
+      <c r="A22" s="32"/>
+      <c r="B22" s="32"/>
       <c r="C22" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="D22" s="70"/>
-      <c r="E22" s="71"/>
-      <c r="F22" s="70"/>
-      <c r="G22" s="72"/>
+      <c r="D22" s="25"/>
+      <c r="E22" s="28"/>
+      <c r="F22" s="25"/>
+      <c r="G22" s="26"/>
     </row>
     <row r="23" spans="1:7" s="1" customFormat="1" ht="22" customHeight="1">
-      <c r="A23" s="77"/>
-      <c r="B23" s="77"/>
+      <c r="A23" s="32"/>
+      <c r="B23" s="32"/>
       <c r="C23" s="8" t="s">
         <v>144</v>
       </c>
-      <c r="D23" s="70"/>
-      <c r="E23" s="71"/>
-      <c r="F23" s="70"/>
-      <c r="G23" s="72"/>
+      <c r="D23" s="25"/>
+      <c r="E23" s="28"/>
+      <c r="F23" s="25"/>
+      <c r="G23" s="26"/>
     </row>
     <row r="24" spans="1:7" s="1" customFormat="1" ht="22" customHeight="1">
-      <c r="A24" s="77"/>
-      <c r="B24" s="77"/>
+      <c r="A24" s="32"/>
+      <c r="B24" s="32"/>
       <c r="C24" s="8" t="s">
         <v>145</v>
       </c>
-      <c r="D24" s="70"/>
-      <c r="E24" s="71"/>
-      <c r="F24" s="70"/>
-      <c r="G24" s="72"/>
+      <c r="D24" s="25"/>
+      <c r="E24" s="28"/>
+      <c r="F24" s="25"/>
+      <c r="G24" s="26"/>
     </row>
     <row r="25" spans="1:7" s="1" customFormat="1" ht="22" customHeight="1">
-      <c r="A25" s="77"/>
-      <c r="B25" s="77"/>
+      <c r="A25" s="32"/>
+      <c r="B25" s="32"/>
       <c r="C25" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="D25" s="70"/>
-      <c r="E25" s="71"/>
-      <c r="F25" s="70"/>
-      <c r="G25" s="72"/>
+      <c r="D25" s="25"/>
+      <c r="E25" s="28"/>
+      <c r="F25" s="25"/>
+      <c r="G25" s="26"/>
     </row>
     <row r="26" spans="1:7" s="2" customFormat="1" ht="22" customHeight="1">
-      <c r="A26" s="75"/>
-      <c r="B26" s="75"/>
-      <c r="C26" s="75"/>
-      <c r="D26" s="70"/>
-      <c r="E26" s="71"/>
-      <c r="F26" s="70"/>
-      <c r="G26" s="72"/>
+      <c r="A26" s="30"/>
+      <c r="B26" s="30"/>
+      <c r="C26" s="30"/>
+      <c r="D26" s="25"/>
+      <c r="E26" s="28"/>
+      <c r="F26" s="25"/>
+      <c r="G26" s="26"/>
     </row>
     <row r="27" spans="1:7" s="3" customFormat="1" ht="22" customHeight="1">
-      <c r="A27" s="78" t="s">
+      <c r="A27" s="33" t="s">
         <v>147</v>
       </c>
       <c r="B27" s="10" t="s">
@@ -2718,52 +2695,59 @@
       <c r="C27" s="11" t="s">
         <v>149</v>
       </c>
-      <c r="D27" s="70"/>
-      <c r="E27" s="71"/>
-      <c r="F27" s="70"/>
-      <c r="G27" s="72"/>
+      <c r="D27" s="25"/>
+      <c r="E27" s="28"/>
+      <c r="F27" s="25"/>
+      <c r="G27" s="26"/>
     </row>
     <row r="28" spans="1:7" s="3" customFormat="1" ht="22" customHeight="1">
-      <c r="A28" s="78"/>
+      <c r="A28" s="33"/>
       <c r="B28" s="10" t="s">
         <v>150</v>
       </c>
       <c r="C28" s="11" t="s">
         <v>151</v>
       </c>
-      <c r="D28" s="70"/>
-      <c r="E28" s="71"/>
-      <c r="F28" s="70"/>
-      <c r="G28" s="72"/>
+      <c r="D28" s="25"/>
+      <c r="E28" s="28"/>
+      <c r="F28" s="25"/>
+      <c r="G28" s="26"/>
     </row>
     <row r="29" spans="1:7" s="3" customFormat="1" ht="22" customHeight="1">
-      <c r="A29" s="78"/>
+      <c r="A29" s="33"/>
       <c r="B29" s="10" t="s">
         <v>152</v>
       </c>
       <c r="C29" s="11" t="s">
         <v>153</v>
       </c>
-      <c r="D29" s="70"/>
-      <c r="E29" s="71"/>
-      <c r="F29" s="70"/>
-      <c r="G29" s="72"/>
+      <c r="D29" s="25"/>
+      <c r="E29" s="28"/>
+      <c r="F29" s="25"/>
+      <c r="G29" s="26"/>
     </row>
     <row r="30" spans="1:7" s="3" customFormat="1" ht="22" customHeight="1">
-      <c r="A30" s="78"/>
+      <c r="A30" s="33"/>
       <c r="B30" s="10" t="s">
         <v>154</v>
       </c>
       <c r="C30" s="11" t="s">
         <v>155</v>
       </c>
-      <c r="D30" s="70"/>
-      <c r="E30" s="71"/>
-      <c r="F30" s="70"/>
-      <c r="G30" s="72"/>
+      <c r="D30" s="25"/>
+      <c r="E30" s="28"/>
+      <c r="F30" s="25"/>
+      <c r="G30" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="A4:A25"/>
+    <mergeCell ref="A27:A30"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="B9:B19"/>
+    <mergeCell ref="B20:B25"/>
     <mergeCell ref="G2:G3"/>
     <mergeCell ref="G4:G30"/>
     <mergeCell ref="D2:D3"/>
@@ -2772,15 +2756,8 @@
     <mergeCell ref="E4:E30"/>
     <mergeCell ref="F2:F3"/>
     <mergeCell ref="F4:F30"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="A4:A25"/>
-    <mergeCell ref="A27:A30"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="B9:B19"/>
-    <mergeCell ref="B20:B25"/>
   </mergeCells>
-  <phoneticPr fontId="28" type="noConversion"/>
+  <phoneticPr fontId="17" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <extLst>

--- a/遂宁项目/2018年 遂宁志愿者官网及 APP平台开发 功能明细.xlsx
+++ b/遂宁项目/2018年 遂宁志愿者官网及 APP平台开发 功能明细.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="6340" yWindow="0" windowWidth="24620" windowHeight="19220" activeTab="1"/>
+    <workbookView xWindow="740" yWindow="40" windowWidth="25600" windowHeight="19500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="汇总表" sheetId="1" r:id="rId1"/>
@@ -582,90 +582,102 @@
     <t>手机端功能</t>
   </si>
   <si>
+    <t>后台管理功能</t>
+  </si>
+  <si>
+    <t>云服务器</t>
+  </si>
+  <si>
+    <t>云服务器存储</t>
+  </si>
+  <si>
+    <t>匹配阿里云服务器空间CPU8核，内存16GB+</t>
+  </si>
+  <si>
+    <t>防火墙</t>
+  </si>
+  <si>
+    <t>设置防火墙防护功能开发及维护功能，自动报警舆情管理</t>
+  </si>
+  <si>
+    <t>云备份</t>
+  </si>
+  <si>
+    <t>设置开发管理云备份功能，自动备份及管理服务系统</t>
+  </si>
+  <si>
+    <t>并发数</t>
+  </si>
+  <si>
+    <t>满足同时并发200万以上PV值</t>
+  </si>
+  <si>
+    <t>能完成中央文明办志愿者办考核内容，各种活动信息的展示，志愿者的感悟</t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t>有自己的权威性（发布文件确认签收、我们发布任务后，他们的实时动态信息反馈能体现，数据体现、社区开展活动可以在网上发布）</t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t>互联互通（达到要求的志愿者可以在联盟（旅游局，宾馆、超市…）的商家有一定的优惠）</t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t>兑换券</t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t>管理员及其权限管理：对志愿者管理员管理</t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t>志愿者管理：志愿者管理、参与或报名的志愿活动统计等</t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t>新闻和活动管理：新闻和志愿活动等发布、审核管理</t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t>消息管理</t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t>排行榜管理</t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t>日志管理</t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
     <t>用户注册登录模块</t>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>公益新闻和活动模块：志愿者学院、志愿者招募、志愿者风采</t>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>个人中心模块：志愿者资料、参与或报名的志愿活动、志愿活动签到、积分系统等</t>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>搜索模块</t>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>消息模块：消息提醒推送</t>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>排行榜模块</t>
-  </si>
-  <si>
-    <t>后台管理功能</t>
-  </si>
-  <si>
-    <t>志愿者管理：志愿者管理、参与或报名的志愿活动统计等</t>
-  </si>
-  <si>
-    <t>管理员及其权限管理：对志愿者管理员管理</t>
-  </si>
-  <si>
-    <t>新闻和活动管理：新闻和志愿活动等发布、审核管理</t>
-  </si>
-  <si>
-    <t>消息管理</t>
-  </si>
-  <si>
-    <t>排行榜管理</t>
-  </si>
-  <si>
-    <t>日志管理</t>
-  </si>
-  <si>
-    <t>云服务器</t>
-  </si>
-  <si>
-    <t>云服务器存储</t>
-  </si>
-  <si>
-    <t>匹配阿里云服务器空间CPU8核，内存16GB+</t>
-  </si>
-  <si>
-    <t>防火墙</t>
-  </si>
-  <si>
-    <t>设置防火墙防护功能开发及维护功能，自动报警舆情管理</t>
-  </si>
-  <si>
-    <t>云备份</t>
-  </si>
-  <si>
-    <t>设置开发管理云备份功能，自动备份及管理服务系统</t>
-  </si>
-  <si>
-    <t>并发数</t>
-  </si>
-  <si>
-    <t>满足同时并发200万以上PV值</t>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
   <si>
     <t>志愿者社区：志愿者在线留言，交互功能，留言板块等</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>能完成中央文明办志愿者办考核内容，各种活动信息的展示，志愿者的感悟</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>有自己的权威性（发布文件确认签收、我们发布任务后，他们的实时动态信息反馈能体现，数据体现、社区开展活动可以在网上发布）</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>互联互通（达到要求的志愿者可以在联盟（旅游局，宾馆、超市…）的商家有一定的优惠）</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>兑换券</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="28" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -675,7 +687,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="_ \¥* #,##0.00_ ;_ \¥* \-#,##0.00_ ;_ \¥* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23" x14ac:knownFonts="1">
+  <fonts count="29" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -723,6 +735,71 @@
     <font>
       <b/>
       <sz val="14"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -788,35 +865,6 @@
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="14"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
     </font>
   </fonts>
   <fills count="4">
@@ -957,14 +1005,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1006,34 +1054,107 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="21" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="23" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1056,10 +1177,112 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1080,194 +1303,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="9" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1558,90 +1593,90 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="54" customHeight="1">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-    </row>
-    <row r="2" spans="1:3" s="13" customFormat="1" ht="33" customHeight="1">
-      <c r="A2" s="14" t="s">
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+    </row>
+    <row r="2" spans="1:3" s="32" customFormat="1" ht="33" customHeight="1">
+      <c r="A2" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="34" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="29" customHeight="1">
-      <c r="A3" s="16">
+      <c r="A3" s="35">
         <v>1</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="18" t="s">
+      <c r="C3" s="37" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="30" customHeight="1">
-      <c r="A4" s="16">
+      <c r="A4" s="35">
         <v>2</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="18" t="s">
+      <c r="C4" s="37" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="28" customHeight="1">
-      <c r="A5" s="16">
+      <c r="A5" s="35">
         <v>3</v>
       </c>
-      <c r="B5" s="17" t="s">
+      <c r="B5" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="18" t="s">
+      <c r="C5" s="37" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="28" customHeight="1">
-      <c r="A6" s="16">
+      <c r="A6" s="35">
         <v>4</v>
       </c>
-      <c r="B6" s="17" t="s">
+      <c r="B6" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="18" t="s">
+      <c r="C6" s="37" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="42" customHeight="1">
-      <c r="A7" s="21" t="s">
+      <c r="A7" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="21"/>
-      <c r="C7" s="21"/>
+      <c r="B7" s="40"/>
+      <c r="C7" s="40"/>
     </row>
     <row r="8" spans="1:3" ht="29" customHeight="1">
-      <c r="A8" s="22" t="s">
+      <c r="A8" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="22"/>
-      <c r="C8" s="22"/>
+      <c r="B8" s="41"/>
+      <c r="C8" s="41"/>
     </row>
     <row r="9" spans="1:3" ht="34" customHeight="1">
-      <c r="A9" s="22" t="s">
+      <c r="A9" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="22"/>
-      <c r="C9" s="22"/>
+      <c r="B9" s="41"/>
+      <c r="C9" s="41"/>
     </row>
     <row r="17" spans="2:2">
-      <c r="B17" s="19"/>
+      <c r="B17" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -1650,7 +1685,7 @@
     <mergeCell ref="A8:C8"/>
     <mergeCell ref="A9:C9"/>
   </mergeCells>
-  <phoneticPr fontId="17" type="noConversion"/>
+  <phoneticPr fontId="28" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
@@ -1664,8 +1699,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5:F42"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -1680,645 +1715,645 @@
     <col min="8" max="8" width="21.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="57" customHeight="1">
-      <c r="A1" s="27" t="s">
+    <row r="1" spans="1:8">
+      <c r="A1" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-    </row>
-    <row r="2" spans="1:8" ht="57" customHeight="1">
-      <c r="A2" s="27"/>
-      <c r="B2" s="27"/>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
-    </row>
-    <row r="3" spans="1:8" ht="57" customHeight="1">
-      <c r="A3" s="36" t="s">
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
+    </row>
+    <row r="2" spans="1:8" ht="45" customHeight="1">
+      <c r="A2" s="46"/>
+      <c r="B2" s="46"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="46"/>
+      <c r="H2" s="46"/>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="36" t="s">
+      <c r="B3" s="47" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="36" t="s">
+      <c r="C3" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="37" t="s">
+      <c r="D3" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="38" t="s">
+      <c r="E3" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="F3" s="38" t="s">
+      <c r="F3" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="G3" s="38" t="s">
+      <c r="G3" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="H3" s="38" t="s">
+      <c r="H3" s="42" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="57" customHeight="1">
-      <c r="A4" s="39"/>
-      <c r="B4" s="36"/>
-      <c r="C4" s="40"/>
-      <c r="D4" s="41"/>
-      <c r="E4" s="42"/>
-      <c r="F4" s="42"/>
-      <c r="G4" s="42"/>
-      <c r="H4" s="42"/>
-    </row>
-    <row r="5" spans="1:8" ht="57" customHeight="1">
-      <c r="A5" s="43" t="s">
+    <row r="4" spans="1:8">
+      <c r="A4" s="60"/>
+      <c r="B4" s="47"/>
+      <c r="C4" s="48"/>
+      <c r="D4" s="50"/>
+      <c r="E4" s="43"/>
+      <c r="F4" s="43"/>
+      <c r="G4" s="43"/>
+      <c r="H4" s="43"/>
+    </row>
+    <row r="5" spans="1:8" ht="31" customHeight="1">
+      <c r="A5" s="61" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="40" t="s">
+      <c r="B5" s="48" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="44" t="s">
+      <c r="C5" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="D5" s="45" t="s">
+      <c r="D5" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="E5" s="46" t="s">
+      <c r="E5" s="44" t="s">
         <v>28</v>
       </c>
-      <c r="F5" s="47" t="s">
+      <c r="F5" s="51" t="s">
         <v>29</v>
       </c>
-      <c r="G5" s="46" t="s">
+      <c r="G5" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="H5" s="48" t="s">
+      <c r="H5" s="45" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="57" customHeight="1">
-      <c r="A6" s="49"/>
-      <c r="B6" s="50"/>
-      <c r="C6" s="44" t="s">
+    <row r="6" spans="1:8" ht="30" customHeight="1">
+      <c r="A6" s="62"/>
+      <c r="B6" s="68"/>
+      <c r="C6" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="D6" s="45" t="s">
+      <c r="D6" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="E6" s="46"/>
-      <c r="F6" s="47"/>
-      <c r="G6" s="46"/>
-      <c r="H6" s="48"/>
-    </row>
-    <row r="7" spans="1:8" ht="57" customHeight="1">
-      <c r="A7" s="49"/>
-      <c r="B7" s="50"/>
-      <c r="C7" s="44" t="s">
+      <c r="E6" s="44"/>
+      <c r="F6" s="51"/>
+      <c r="G6" s="44"/>
+      <c r="H6" s="45"/>
+    </row>
+    <row r="7" spans="1:8" ht="36" customHeight="1">
+      <c r="A7" s="62"/>
+      <c r="B7" s="68"/>
+      <c r="C7" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="D7" s="45" t="s">
+      <c r="D7" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="E7" s="46"/>
-      <c r="F7" s="47"/>
-      <c r="G7" s="46"/>
-      <c r="H7" s="48"/>
-    </row>
-    <row r="8" spans="1:8" ht="57" customHeight="1">
-      <c r="A8" s="49"/>
-      <c r="B8" s="40" t="s">
+      <c r="E7" s="44"/>
+      <c r="F7" s="51"/>
+      <c r="G7" s="44"/>
+      <c r="H7" s="45"/>
+    </row>
+    <row r="8" spans="1:8" ht="23" customHeight="1">
+      <c r="A8" s="62"/>
+      <c r="B8" s="48" t="s">
         <v>35</v>
       </c>
-      <c r="C8" s="44" t="s">
+      <c r="C8" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="D8" s="45" t="s">
+      <c r="D8" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="E8" s="46"/>
-      <c r="F8" s="47"/>
-      <c r="G8" s="46"/>
-      <c r="H8" s="48"/>
-    </row>
-    <row r="9" spans="1:8" ht="57" customHeight="1">
-      <c r="A9" s="49"/>
-      <c r="B9" s="50"/>
-      <c r="C9" s="44" t="s">
+      <c r="E8" s="44"/>
+      <c r="F8" s="51"/>
+      <c r="G8" s="44"/>
+      <c r="H8" s="45"/>
+    </row>
+    <row r="9" spans="1:8" ht="29" customHeight="1">
+      <c r="A9" s="62"/>
+      <c r="B9" s="68"/>
+      <c r="C9" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="D9" s="45" t="s">
+      <c r="D9" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="E9" s="46"/>
-      <c r="F9" s="47"/>
-      <c r="G9" s="46"/>
-      <c r="H9" s="48"/>
-    </row>
-    <row r="10" spans="1:8" ht="57" customHeight="1">
-      <c r="A10" s="49"/>
-      <c r="B10" s="50"/>
-      <c r="C10" s="44" t="s">
+      <c r="E9" s="44"/>
+      <c r="F9" s="51"/>
+      <c r="G9" s="44"/>
+      <c r="H9" s="45"/>
+    </row>
+    <row r="10" spans="1:8" ht="31" customHeight="1">
+      <c r="A10" s="62"/>
+      <c r="B10" s="68"/>
+      <c r="C10" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="D10" s="45" t="s">
+      <c r="D10" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="E10" s="46"/>
-      <c r="F10" s="47"/>
-      <c r="G10" s="46"/>
-      <c r="H10" s="48"/>
-    </row>
-    <row r="11" spans="1:8" ht="57" customHeight="1">
-      <c r="A11" s="49"/>
-      <c r="B11" s="50"/>
-      <c r="C11" s="44" t="s">
+      <c r="E10" s="44"/>
+      <c r="F10" s="51"/>
+      <c r="G10" s="44"/>
+      <c r="H10" s="45"/>
+    </row>
+    <row r="11" spans="1:8" ht="25" customHeight="1">
+      <c r="A11" s="62"/>
+      <c r="B11" s="68"/>
+      <c r="C11" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="D11" s="45" t="s">
+      <c r="D11" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="E11" s="46"/>
-      <c r="F11" s="47"/>
-      <c r="G11" s="46"/>
-      <c r="H11" s="48"/>
-    </row>
-    <row r="12" spans="1:8" ht="57" customHeight="1">
-      <c r="A12" s="39"/>
-      <c r="B12" s="51"/>
-      <c r="C12" s="52" t="s">
+      <c r="E11" s="44"/>
+      <c r="F11" s="51"/>
+      <c r="G11" s="44"/>
+      <c r="H11" s="45"/>
+    </row>
+    <row r="12" spans="1:8" ht="33" customHeight="1">
+      <c r="A12" s="60"/>
+      <c r="B12" s="69"/>
+      <c r="C12" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="D12" s="53" t="s">
+      <c r="D12" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="E12" s="46"/>
-      <c r="F12" s="47"/>
-      <c r="G12" s="46"/>
-      <c r="H12" s="48"/>
-    </row>
-    <row r="13" spans="1:8" ht="57" customHeight="1">
-      <c r="A13" s="54"/>
-      <c r="B13" s="51" t="s">
+      <c r="E12" s="44"/>
+      <c r="F12" s="51"/>
+      <c r="G12" s="44"/>
+      <c r="H12" s="45"/>
+    </row>
+    <row r="13" spans="1:8" ht="31" customHeight="1">
+      <c r="A13" s="63"/>
+      <c r="B13" s="69" t="s">
         <v>46</v>
       </c>
-      <c r="C13" s="52" t="s">
+      <c r="C13" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="D13" s="53" t="s">
+      <c r="D13" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="E13" s="46"/>
-      <c r="F13" s="47"/>
-      <c r="G13" s="46"/>
-      <c r="H13" s="48"/>
-    </row>
-    <row r="14" spans="1:8" ht="57" customHeight="1">
-      <c r="A14" s="54"/>
-      <c r="B14" s="51" t="s">
+      <c r="E13" s="44"/>
+      <c r="F13" s="51"/>
+      <c r="G13" s="44"/>
+      <c r="H13" s="45"/>
+    </row>
+    <row r="14" spans="1:8" ht="38" customHeight="1">
+      <c r="A14" s="63"/>
+      <c r="B14" s="69" t="s">
         <v>49</v>
       </c>
-      <c r="C14" s="52" t="s">
+      <c r="C14" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="D14" s="55" t="s">
+      <c r="D14" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="E14" s="46"/>
-      <c r="F14" s="47"/>
-      <c r="G14" s="46"/>
-      <c r="H14" s="48"/>
-    </row>
-    <row r="15" spans="1:8" ht="57" customHeight="1">
-      <c r="A15" s="56" t="s">
+      <c r="E14" s="44"/>
+      <c r="F14" s="51"/>
+      <c r="G14" s="44"/>
+      <c r="H14" s="45"/>
+    </row>
+    <row r="15" spans="1:8" ht="25" customHeight="1">
+      <c r="A15" s="64" t="s">
         <v>52</v>
       </c>
-      <c r="B15" s="57" t="s">
+      <c r="B15" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="C15" s="58" t="s">
+      <c r="C15" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="D15" s="59" t="s">
+      <c r="D15" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="E15" s="46"/>
-      <c r="F15" s="47"/>
-      <c r="G15" s="46"/>
-      <c r="H15" s="48"/>
-    </row>
-    <row r="16" spans="1:8" ht="57" customHeight="1">
-      <c r="A16" s="39"/>
-      <c r="B16" s="60" t="s">
+      <c r="E15" s="44"/>
+      <c r="F15" s="51"/>
+      <c r="G15" s="44"/>
+      <c r="H15" s="45"/>
+    </row>
+    <row r="16" spans="1:8" ht="33" customHeight="1">
+      <c r="A16" s="60"/>
+      <c r="B16" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="C16" s="52" t="s">
+      <c r="C16" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="D16" s="55" t="s">
+      <c r="D16" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="E16" s="46"/>
-      <c r="F16" s="47"/>
-      <c r="G16" s="46"/>
-      <c r="H16" s="48"/>
-    </row>
-    <row r="17" spans="1:8" ht="57" customHeight="1">
-      <c r="A17" s="39"/>
-      <c r="B17" s="60" t="s">
+      <c r="E16" s="44"/>
+      <c r="F16" s="51"/>
+      <c r="G16" s="44"/>
+      <c r="H16" s="45"/>
+    </row>
+    <row r="17" spans="1:8" ht="27" customHeight="1">
+      <c r="A17" s="60"/>
+      <c r="B17" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="C17" s="61"/>
-      <c r="D17" s="62" t="s">
+      <c r="C17" s="22"/>
+      <c r="D17" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="E17" s="46"/>
-      <c r="F17" s="47"/>
-      <c r="G17" s="46"/>
-      <c r="H17" s="48"/>
-    </row>
-    <row r="18" spans="1:8" ht="57" customHeight="1">
-      <c r="A18" s="39"/>
-      <c r="B18" s="63" t="s">
+      <c r="E17" s="44"/>
+      <c r="F17" s="51"/>
+      <c r="G17" s="44"/>
+      <c r="H17" s="45"/>
+    </row>
+    <row r="18" spans="1:8" ht="25" customHeight="1">
+      <c r="A18" s="60"/>
+      <c r="B18" s="70" t="s">
         <v>61</v>
       </c>
-      <c r="C18" s="44" t="s">
+      <c r="C18" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="D18" s="64" t="s">
+      <c r="D18" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="E18" s="46"/>
-      <c r="F18" s="47"/>
-      <c r="G18" s="46"/>
-      <c r="H18" s="48"/>
-    </row>
-    <row r="19" spans="1:8" ht="57" customHeight="1">
-      <c r="A19" s="39"/>
-      <c r="B19" s="65"/>
-      <c r="C19" s="44" t="s">
+      <c r="E18" s="44"/>
+      <c r="F18" s="51"/>
+      <c r="G18" s="44"/>
+      <c r="H18" s="45"/>
+    </row>
+    <row r="19" spans="1:8" ht="24" customHeight="1">
+      <c r="A19" s="60"/>
+      <c r="B19" s="71"/>
+      <c r="C19" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="D19" s="64" t="s">
+      <c r="D19" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="E19" s="46"/>
-      <c r="F19" s="47"/>
-      <c r="G19" s="46"/>
-      <c r="H19" s="48"/>
-    </row>
-    <row r="20" spans="1:8" ht="57" customHeight="1">
-      <c r="A20" s="39"/>
-      <c r="B20" s="65"/>
-      <c r="C20" s="44" t="s">
+      <c r="E19" s="44"/>
+      <c r="F19" s="51"/>
+      <c r="G19" s="44"/>
+      <c r="H19" s="45"/>
+    </row>
+    <row r="20" spans="1:8" ht="36" customHeight="1">
+      <c r="A20" s="60"/>
+      <c r="B20" s="71"/>
+      <c r="C20" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="D20" s="64" t="s">
+      <c r="D20" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="E20" s="46"/>
-      <c r="F20" s="47"/>
-      <c r="G20" s="46"/>
-      <c r="H20" s="48"/>
-    </row>
-    <row r="21" spans="1:8" ht="57" customHeight="1">
-      <c r="A21" s="39"/>
-      <c r="B21" s="65"/>
-      <c r="C21" s="44" t="s">
+      <c r="E20" s="44"/>
+      <c r="F20" s="51"/>
+      <c r="G20" s="44"/>
+      <c r="H20" s="45"/>
+    </row>
+    <row r="21" spans="1:8" ht="43" customHeight="1">
+      <c r="A21" s="60"/>
+      <c r="B21" s="71"/>
+      <c r="C21" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="D21" s="64" t="s">
+      <c r="D21" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="E21" s="46"/>
-      <c r="F21" s="47"/>
-      <c r="G21" s="46"/>
-      <c r="H21" s="48"/>
-    </row>
-    <row r="22" spans="1:8" ht="57" customHeight="1">
-      <c r="A22" s="39"/>
-      <c r="B22" s="65"/>
-      <c r="C22" s="44" t="s">
+      <c r="E21" s="44"/>
+      <c r="F21" s="51"/>
+      <c r="G21" s="44"/>
+      <c r="H21" s="45"/>
+    </row>
+    <row r="22" spans="1:8" ht="33" customHeight="1">
+      <c r="A22" s="60"/>
+      <c r="B22" s="71"/>
+      <c r="C22" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="D22" s="64" t="s">
+      <c r="D22" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="E22" s="46"/>
-      <c r="F22" s="47"/>
-      <c r="G22" s="46"/>
-      <c r="H22" s="48"/>
-    </row>
-    <row r="23" spans="1:8" ht="57" customHeight="1">
-      <c r="A23" s="39"/>
-      <c r="B23" s="65"/>
-      <c r="C23" s="44" t="s">
+      <c r="E22" s="44"/>
+      <c r="F22" s="51"/>
+      <c r="G22" s="44"/>
+      <c r="H22" s="45"/>
+    </row>
+    <row r="23" spans="1:8" ht="33" customHeight="1">
+      <c r="A23" s="60"/>
+      <c r="B23" s="71"/>
+      <c r="C23" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="D23" s="64" t="s">
+      <c r="D23" s="24" t="s">
         <v>73</v>
       </c>
-      <c r="E23" s="46"/>
-      <c r="F23" s="47"/>
-      <c r="G23" s="46"/>
-      <c r="H23" s="48"/>
-    </row>
-    <row r="24" spans="1:8" ht="57" customHeight="1">
-      <c r="A24" s="39"/>
-      <c r="B24" s="65"/>
-      <c r="C24" s="44" t="s">
+      <c r="E23" s="44"/>
+      <c r="F23" s="51"/>
+      <c r="G23" s="44"/>
+      <c r="H23" s="45"/>
+    </row>
+    <row r="24" spans="1:8" ht="27" customHeight="1">
+      <c r="A24" s="60"/>
+      <c r="B24" s="71"/>
+      <c r="C24" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="D24" s="64" t="s">
+      <c r="D24" s="24" t="s">
         <v>75</v>
       </c>
-      <c r="E24" s="46"/>
-      <c r="F24" s="47"/>
-      <c r="G24" s="46"/>
-      <c r="H24" s="48"/>
-    </row>
-    <row r="25" spans="1:8" ht="57" customHeight="1">
-      <c r="A25" s="39"/>
-      <c r="B25" s="65"/>
-      <c r="C25" s="44" t="s">
+      <c r="E24" s="44"/>
+      <c r="F24" s="51"/>
+      <c r="G24" s="44"/>
+      <c r="H24" s="45"/>
+    </row>
+    <row r="25" spans="1:8" ht="38" customHeight="1">
+      <c r="A25" s="60"/>
+      <c r="B25" s="71"/>
+      <c r="C25" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="D25" s="64" t="s">
+      <c r="D25" s="24" t="s">
         <v>77</v>
       </c>
-      <c r="E25" s="46"/>
-      <c r="F25" s="47"/>
-      <c r="G25" s="46"/>
-      <c r="H25" s="48"/>
-    </row>
-    <row r="26" spans="1:8" ht="57" customHeight="1">
-      <c r="A26" s="39"/>
-      <c r="B26" s="65"/>
-      <c r="C26" s="44" t="s">
+      <c r="E25" s="44"/>
+      <c r="F25" s="51"/>
+      <c r="G25" s="44"/>
+      <c r="H25" s="45"/>
+    </row>
+    <row r="26" spans="1:8" ht="27" customHeight="1">
+      <c r="A26" s="60"/>
+      <c r="B26" s="71"/>
+      <c r="C26" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="D26" s="64" t="s">
+      <c r="D26" s="24" t="s">
         <v>79</v>
       </c>
-      <c r="E26" s="46"/>
-      <c r="F26" s="47"/>
-      <c r="G26" s="46"/>
-      <c r="H26" s="48"/>
-    </row>
-    <row r="27" spans="1:8" ht="57" customHeight="1">
-      <c r="A27" s="39"/>
-      <c r="B27" s="65"/>
-      <c r="C27" s="44" t="s">
+      <c r="E26" s="44"/>
+      <c r="F26" s="51"/>
+      <c r="G26" s="44"/>
+      <c r="H26" s="45"/>
+    </row>
+    <row r="27" spans="1:8" ht="26">
+      <c r="A27" s="60"/>
+      <c r="B27" s="71"/>
+      <c r="C27" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="D27" s="64" t="s">
+      <c r="D27" s="24" t="s">
         <v>81</v>
       </c>
-      <c r="E27" s="46"/>
-      <c r="F27" s="47"/>
-      <c r="G27" s="46"/>
-      <c r="H27" s="48"/>
-    </row>
-    <row r="28" spans="1:8" ht="57" customHeight="1">
-      <c r="A28" s="39"/>
-      <c r="B28" s="66"/>
-      <c r="C28" s="44" t="s">
+      <c r="E27" s="44"/>
+      <c r="F27" s="51"/>
+      <c r="G27" s="44"/>
+      <c r="H27" s="45"/>
+    </row>
+    <row r="28" spans="1:8" ht="61" customHeight="1">
+      <c r="A28" s="60"/>
+      <c r="B28" s="72"/>
+      <c r="C28" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="D28" s="64" t="s">
+      <c r="D28" s="24" t="s">
         <v>83</v>
       </c>
-      <c r="E28" s="46"/>
-      <c r="F28" s="47"/>
-      <c r="G28" s="46"/>
-      <c r="H28" s="48"/>
-    </row>
-    <row r="29" spans="1:8" ht="57" customHeight="1">
-      <c r="A29" s="67" t="s">
+      <c r="E28" s="44"/>
+      <c r="F28" s="51"/>
+      <c r="G28" s="44"/>
+      <c r="H28" s="45"/>
+    </row>
+    <row r="29" spans="1:8" ht="30" customHeight="1">
+      <c r="A29" s="52" t="s">
         <v>84</v>
       </c>
-      <c r="B29" s="68"/>
-      <c r="C29" s="68"/>
-      <c r="D29" s="68"/>
-      <c r="E29" s="46"/>
-      <c r="F29" s="47"/>
-      <c r="G29" s="46"/>
-      <c r="H29" s="48"/>
-    </row>
-    <row r="30" spans="1:8" ht="57" customHeight="1">
-      <c r="A30" s="69" t="s">
+      <c r="B29" s="53"/>
+      <c r="C29" s="53"/>
+      <c r="D29" s="54"/>
+      <c r="E29" s="44"/>
+      <c r="F29" s="51"/>
+      <c r="G29" s="44"/>
+      <c r="H29" s="45"/>
+    </row>
+    <row r="30" spans="1:8" ht="21" customHeight="1">
+      <c r="A30" s="65" t="s">
         <v>85</v>
       </c>
-      <c r="B30" s="70" t="s">
+      <c r="B30" s="67" t="s">
         <v>86</v>
       </c>
-      <c r="C30" s="71" t="s">
+      <c r="C30" s="25" t="s">
         <v>87</v>
       </c>
-      <c r="D30" s="72" t="s">
+      <c r="D30" s="26" t="s">
         <v>88</v>
       </c>
-      <c r="E30" s="46"/>
-      <c r="F30" s="47"/>
-      <c r="G30" s="46"/>
-      <c r="H30" s="48"/>
-    </row>
-    <row r="31" spans="1:8" ht="57" customHeight="1">
-      <c r="A31" s="69"/>
-      <c r="B31" s="70"/>
-      <c r="C31" s="73" t="s">
+      <c r="E30" s="44"/>
+      <c r="F30" s="51"/>
+      <c r="G30" s="44"/>
+      <c r="H30" s="45"/>
+    </row>
+    <row r="31" spans="1:8" ht="27" customHeight="1">
+      <c r="A31" s="65"/>
+      <c r="B31" s="67"/>
+      <c r="C31" s="27" t="s">
         <v>89</v>
       </c>
-      <c r="D31" s="74" t="s">
+      <c r="D31" s="28" t="s">
         <v>90</v>
       </c>
-      <c r="E31" s="46"/>
-      <c r="F31" s="47"/>
-      <c r="G31" s="46"/>
-      <c r="H31" s="48"/>
-    </row>
-    <row r="32" spans="1:8" ht="57" customHeight="1">
-      <c r="A32" s="69"/>
-      <c r="B32" s="70" t="s">
+      <c r="E31" s="44"/>
+      <c r="F31" s="51"/>
+      <c r="G31" s="44"/>
+      <c r="H31" s="45"/>
+    </row>
+    <row r="32" spans="1:8" ht="30" customHeight="1">
+      <c r="A32" s="65"/>
+      <c r="B32" s="67" t="s">
         <v>91</v>
       </c>
-      <c r="C32" s="71" t="s">
+      <c r="C32" s="25" t="s">
         <v>92</v>
       </c>
-      <c r="D32" s="75" t="s">
+      <c r="D32" s="29" t="s">
         <v>93</v>
       </c>
-      <c r="E32" s="46"/>
-      <c r="F32" s="47"/>
-      <c r="G32" s="46"/>
-      <c r="H32" s="48"/>
-    </row>
-    <row r="33" spans="1:8" ht="57" customHeight="1">
-      <c r="A33" s="69"/>
-      <c r="B33" s="70"/>
-      <c r="C33" s="71" t="s">
+      <c r="E32" s="44"/>
+      <c r="F32" s="51"/>
+      <c r="G32" s="44"/>
+      <c r="H32" s="45"/>
+    </row>
+    <row r="33" spans="1:8" ht="37" customHeight="1">
+      <c r="A33" s="65"/>
+      <c r="B33" s="67"/>
+      <c r="C33" s="25" t="s">
         <v>94</v>
       </c>
-      <c r="D33" s="72" t="s">
+      <c r="D33" s="26" t="s">
         <v>95</v>
       </c>
-      <c r="E33" s="46"/>
-      <c r="F33" s="47"/>
-      <c r="G33" s="46"/>
-      <c r="H33" s="48"/>
-    </row>
-    <row r="34" spans="1:8" ht="57" customHeight="1">
-      <c r="A34" s="69"/>
-      <c r="B34" s="76"/>
-      <c r="C34" s="71" t="s">
+      <c r="E33" s="44"/>
+      <c r="F33" s="51"/>
+      <c r="G33" s="44"/>
+      <c r="H33" s="45"/>
+    </row>
+    <row r="34" spans="1:8" ht="27" customHeight="1">
+      <c r="A34" s="65"/>
+      <c r="B34" s="73"/>
+      <c r="C34" s="25" t="s">
         <v>70</v>
       </c>
-      <c r="D34" s="72" t="s">
+      <c r="D34" s="26" t="s">
         <v>96</v>
       </c>
-      <c r="E34" s="46"/>
-      <c r="F34" s="47"/>
-      <c r="G34" s="46"/>
-      <c r="H34" s="48"/>
-    </row>
-    <row r="35" spans="1:8" ht="57" customHeight="1">
-      <c r="A35" s="69"/>
-      <c r="B35" s="70" t="s">
+      <c r="E34" s="44"/>
+      <c r="F34" s="51"/>
+      <c r="G34" s="44"/>
+      <c r="H34" s="45"/>
+    </row>
+    <row r="35" spans="1:8" ht="24" customHeight="1">
+      <c r="A35" s="65"/>
+      <c r="B35" s="67" t="s">
         <v>97</v>
       </c>
-      <c r="C35" s="71" t="s">
+      <c r="C35" s="25" t="s">
         <v>98</v>
       </c>
-      <c r="D35" s="72" t="s">
+      <c r="D35" s="26" t="s">
         <v>99</v>
       </c>
-      <c r="E35" s="46"/>
-      <c r="F35" s="47"/>
-      <c r="G35" s="46"/>
-      <c r="H35" s="48"/>
-    </row>
-    <row r="36" spans="1:8" ht="57" customHeight="1">
-      <c r="A36" s="69"/>
-      <c r="B36" s="76"/>
-      <c r="C36" s="71" t="s">
+      <c r="E35" s="44"/>
+      <c r="F35" s="51"/>
+      <c r="G35" s="44"/>
+      <c r="H35" s="45"/>
+    </row>
+    <row r="36" spans="1:8" ht="25" customHeight="1">
+      <c r="A36" s="65"/>
+      <c r="B36" s="73"/>
+      <c r="C36" s="25" t="s">
         <v>100</v>
       </c>
-      <c r="D36" s="72" t="s">
+      <c r="D36" s="26" t="s">
         <v>101</v>
       </c>
-      <c r="E36" s="46"/>
-      <c r="F36" s="47"/>
-      <c r="G36" s="46"/>
-      <c r="H36" s="48"/>
-    </row>
-    <row r="37" spans="1:8" ht="57" customHeight="1">
-      <c r="A37" s="76"/>
-      <c r="B37" s="70" t="s">
+      <c r="E36" s="44"/>
+      <c r="F36" s="51"/>
+      <c r="G36" s="44"/>
+      <c r="H36" s="45"/>
+    </row>
+    <row r="37" spans="1:8" ht="32" customHeight="1">
+      <c r="A37" s="66"/>
+      <c r="B37" s="67" t="s">
         <v>102</v>
       </c>
-      <c r="C37" s="71" t="s">
+      <c r="C37" s="25" t="s">
         <v>103</v>
       </c>
-      <c r="D37" s="72" t="s">
+      <c r="D37" s="26" t="s">
         <v>104</v>
       </c>
-      <c r="E37" s="46"/>
-      <c r="F37" s="47"/>
-      <c r="G37" s="46"/>
-      <c r="H37" s="48"/>
-    </row>
-    <row r="38" spans="1:8" ht="57" customHeight="1">
-      <c r="A38" s="76"/>
-      <c r="B38" s="70"/>
-      <c r="C38" s="71" t="s">
+      <c r="E37" s="44"/>
+      <c r="F37" s="51"/>
+      <c r="G37" s="44"/>
+      <c r="H37" s="45"/>
+    </row>
+    <row r="38" spans="1:8" ht="35" customHeight="1">
+      <c r="A38" s="66"/>
+      <c r="B38" s="67"/>
+      <c r="C38" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="D38" s="72" t="s">
+      <c r="D38" s="26" t="s">
         <v>106</v>
       </c>
-      <c r="E38" s="46"/>
-      <c r="F38" s="47"/>
-      <c r="G38" s="46"/>
-      <c r="H38" s="48"/>
-    </row>
-    <row r="39" spans="1:8" ht="57" customHeight="1">
-      <c r="A39" s="76"/>
-      <c r="B39" s="76"/>
-      <c r="C39" s="71" t="s">
+      <c r="E38" s="44"/>
+      <c r="F38" s="51"/>
+      <c r="G38" s="44"/>
+      <c r="H38" s="45"/>
+    </row>
+    <row r="39" spans="1:8" ht="32" customHeight="1">
+      <c r="A39" s="66"/>
+      <c r="B39" s="73"/>
+      <c r="C39" s="25" t="s">
         <v>107</v>
       </c>
-      <c r="D39" s="72" t="s">
+      <c r="D39" s="26" t="s">
         <v>108</v>
       </c>
-      <c r="E39" s="46"/>
-      <c r="F39" s="47"/>
-      <c r="G39" s="46"/>
-      <c r="H39" s="48"/>
-    </row>
-    <row r="40" spans="1:8" ht="57" customHeight="1">
-      <c r="A40" s="70" t="s">
+      <c r="E39" s="44"/>
+      <c r="F39" s="51"/>
+      <c r="G39" s="44"/>
+      <c r="H39" s="45"/>
+    </row>
+    <row r="40" spans="1:8" ht="45" customHeight="1">
+      <c r="A40" s="67" t="s">
         <v>109</v>
       </c>
-      <c r="B40" s="69" t="s">
+      <c r="B40" s="65" t="s">
         <v>110</v>
       </c>
-      <c r="C40" s="77" t="s">
+      <c r="C40" s="30" t="s">
         <v>111</v>
       </c>
-      <c r="D40" s="72" t="s">
+      <c r="D40" s="26" t="s">
         <v>112</v>
       </c>
-      <c r="E40" s="46"/>
-      <c r="F40" s="47"/>
-      <c r="G40" s="46"/>
-      <c r="H40" s="48"/>
-    </row>
-    <row r="41" spans="1:8" ht="57" customHeight="1">
-      <c r="A41" s="70"/>
-      <c r="B41" s="69"/>
-      <c r="C41" s="78" t="s">
+      <c r="E40" s="44"/>
+      <c r="F40" s="51"/>
+      <c r="G40" s="44"/>
+      <c r="H40" s="45"/>
+    </row>
+    <row r="41" spans="1:8" ht="33" customHeight="1">
+      <c r="A41" s="67"/>
+      <c r="B41" s="65"/>
+      <c r="C41" s="31" t="s">
         <v>113</v>
       </c>
-      <c r="D41" s="72" t="s">
+      <c r="D41" s="26" t="s">
         <v>114</v>
       </c>
-      <c r="E41" s="46"/>
-      <c r="F41" s="47"/>
-      <c r="G41" s="46"/>
-      <c r="H41" s="48"/>
-    </row>
-    <row r="42" spans="1:8" ht="57" customHeight="1">
-      <c r="A42" s="70"/>
-      <c r="B42" s="69"/>
-      <c r="C42" s="78" t="s">
+      <c r="E41" s="44"/>
+      <c r="F41" s="51"/>
+      <c r="G41" s="44"/>
+      <c r="H41" s="45"/>
+    </row>
+    <row r="42" spans="1:8" ht="42" customHeight="1">
+      <c r="A42" s="67"/>
+      <c r="B42" s="65"/>
+      <c r="C42" s="31" t="s">
         <v>115</v>
       </c>
-      <c r="D42" s="72" t="s">
+      <c r="D42" s="26" t="s">
         <v>116</v>
       </c>
-      <c r="E42" s="46"/>
-      <c r="F42" s="47"/>
-      <c r="G42" s="46"/>
-      <c r="H42" s="48"/>
-    </row>
-    <row r="43" spans="1:8" ht="57" customHeight="1">
-      <c r="A43" s="79" t="s">
+      <c r="E42" s="44"/>
+      <c r="F42" s="51"/>
+      <c r="G42" s="44"/>
+      <c r="H42" s="45"/>
+    </row>
+    <row r="43" spans="1:8" ht="42" customHeight="1">
+      <c r="A43" s="55" t="s">
         <v>117</v>
       </c>
-      <c r="B43" s="79"/>
-      <c r="C43" s="80"/>
-      <c r="D43" s="81"/>
-      <c r="E43" s="82"/>
-      <c r="F43" s="83"/>
-      <c r="G43" s="82"/>
-      <c r="H43" s="82"/>
+      <c r="B43" s="55"/>
+      <c r="C43" s="56"/>
+      <c r="D43" s="57"/>
+      <c r="E43" s="58"/>
+      <c r="F43" s="59"/>
+      <c r="G43" s="58"/>
+      <c r="H43" s="58"/>
     </row>
   </sheetData>
   <mergeCells count="27">
@@ -2350,7 +2385,7 @@
     <mergeCell ref="F5:F42"/>
     <mergeCell ref="A29:D29"/>
   </mergeCells>
-  <phoneticPr fontId="17" type="noConversion"/>
+  <phoneticPr fontId="28" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
@@ -2365,7 +2400,7 @@
   <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -2381,21 +2416,21 @@
   <sheetData>
     <row r="1" spans="1:7" ht="59" customHeight="1"/>
     <row r="2" spans="1:7" s="1" customFormat="1" ht="41" customHeight="1">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="74" t="s">
         <v>118</v>
       </c>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="23" t="s">
+      <c r="B2" s="74"/>
+      <c r="C2" s="74"/>
+      <c r="D2" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="23" t="s">
+      <c r="E2" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="F2" s="23" t="s">
+      <c r="F2" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="G2" s="23" t="s">
+      <c r="G2" s="42" t="s">
         <v>23</v>
       </c>
     </row>
@@ -2409,335 +2444,335 @@
       <c r="C3" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="24"/>
+      <c r="D3" s="43"/>
+      <c r="E3" s="43"/>
+      <c r="F3" s="43"/>
+      <c r="G3" s="43"/>
     </row>
     <row r="4" spans="1:7" s="1" customFormat="1" ht="22" customHeight="1">
-      <c r="A4" s="31" t="s">
+      <c r="A4" s="76" t="s">
         <v>122</v>
       </c>
-      <c r="B4" s="34" t="s">
+      <c r="B4" s="79" t="s">
         <v>123</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="D4" s="25" t="s">
+      <c r="D4" s="44" t="s">
         <v>125</v>
       </c>
-      <c r="E4" s="28" t="s">
+      <c r="E4" s="51" t="s">
         <v>29</v>
       </c>
-      <c r="F4" s="25" t="s">
+      <c r="F4" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="G4" s="26" t="s">
+      <c r="G4" s="45" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="5" spans="1:7" s="1" customFormat="1" ht="28" customHeight="1">
-      <c r="A5" s="32"/>
-      <c r="B5" s="34"/>
+      <c r="A5" s="77"/>
+      <c r="B5" s="79"/>
       <c r="C5" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="D5" s="25"/>
-      <c r="E5" s="28"/>
-      <c r="F5" s="25"/>
-      <c r="G5" s="26"/>
+      <c r="D5" s="44"/>
+      <c r="E5" s="51"/>
+      <c r="F5" s="44"/>
+      <c r="G5" s="45"/>
     </row>
     <row r="6" spans="1:7" s="1" customFormat="1" ht="28" customHeight="1">
-      <c r="A6" s="32"/>
+      <c r="A6" s="77"/>
       <c r="B6" s="7" t="s">
         <v>128</v>
       </c>
       <c r="C6" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="D6" s="25"/>
-      <c r="E6" s="28"/>
-      <c r="F6" s="25"/>
-      <c r="G6" s="26"/>
+      <c r="D6" s="44"/>
+      <c r="E6" s="51"/>
+      <c r="F6" s="44"/>
+      <c r="G6" s="45"/>
     </row>
     <row r="7" spans="1:7" s="1" customFormat="1" ht="28" customHeight="1">
-      <c r="A7" s="32"/>
+      <c r="A7" s="77"/>
       <c r="B7" s="7" t="s">
         <v>130</v>
       </c>
       <c r="C7" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="D7" s="25"/>
-      <c r="E7" s="28"/>
-      <c r="F7" s="25"/>
-      <c r="G7" s="26"/>
+      <c r="D7" s="44"/>
+      <c r="E7" s="51"/>
+      <c r="F7" s="44"/>
+      <c r="G7" s="45"/>
     </row>
     <row r="8" spans="1:7" s="1" customFormat="1" ht="28" customHeight="1">
-      <c r="A8" s="32"/>
+      <c r="A8" s="77"/>
       <c r="B8" s="6"/>
       <c r="C8" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="D8" s="25"/>
-      <c r="E8" s="28"/>
-      <c r="F8" s="25"/>
-      <c r="G8" s="26"/>
+      <c r="D8" s="44"/>
+      <c r="E8" s="51"/>
+      <c r="F8" s="44"/>
+      <c r="G8" s="45"/>
     </row>
     <row r="9" spans="1:7" s="1" customFormat="1" ht="22" customHeight="1">
-      <c r="A9" s="32"/>
-      <c r="B9" s="31" t="s">
+      <c r="A9" s="77"/>
+      <c r="B9" s="76" t="s">
         <v>133</v>
       </c>
       <c r="C9" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="D9" s="44"/>
+      <c r="E9" s="51"/>
+      <c r="F9" s="44"/>
+      <c r="G9" s="45"/>
+    </row>
+    <row r="10" spans="1:7" s="1" customFormat="1" ht="22" customHeight="1">
+      <c r="A10" s="77"/>
+      <c r="B10" s="77"/>
+      <c r="C10" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="D10" s="44"/>
+      <c r="E10" s="51"/>
+      <c r="F10" s="44"/>
+      <c r="G10" s="45"/>
+    </row>
+    <row r="11" spans="1:7" s="1" customFormat="1" ht="22" customHeight="1">
+      <c r="A11" s="77"/>
+      <c r="B11" s="77"/>
+      <c r="C11" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="D11" s="44"/>
+      <c r="E11" s="51"/>
+      <c r="F11" s="44"/>
+      <c r="G11" s="45"/>
+    </row>
+    <row r="12" spans="1:7" s="1" customFormat="1" ht="22" customHeight="1">
+      <c r="A12" s="77"/>
+      <c r="B12" s="80"/>
+      <c r="C12" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="D12" s="44"/>
+      <c r="E12" s="51"/>
+      <c r="F12" s="44"/>
+      <c r="G12" s="45"/>
+    </row>
+    <row r="13" spans="1:7" s="1" customFormat="1" ht="22" customHeight="1">
+      <c r="A13" s="77"/>
+      <c r="B13" s="80"/>
+      <c r="C13" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="D13" s="44"/>
+      <c r="E13" s="51"/>
+      <c r="F13" s="44"/>
+      <c r="G13" s="45"/>
+    </row>
+    <row r="14" spans="1:7" s="1" customFormat="1" ht="22" customHeight="1">
+      <c r="A14" s="77"/>
+      <c r="B14" s="80"/>
+      <c r="C14" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="D14" s="44"/>
+      <c r="E14" s="51"/>
+      <c r="F14" s="44"/>
+      <c r="G14" s="45"/>
+    </row>
+    <row r="15" spans="1:7" s="1" customFormat="1" ht="22" customHeight="1">
+      <c r="A15" s="77"/>
+      <c r="B15" s="80"/>
+      <c r="C15" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="D15" s="44"/>
+      <c r="E15" s="51"/>
+      <c r="F15" s="44"/>
+      <c r="G15" s="45"/>
+    </row>
+    <row r="16" spans="1:7" s="1" customFormat="1" ht="22" customHeight="1">
+      <c r="A16" s="77"/>
+      <c r="B16" s="80"/>
+      <c r="C16" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="D16" s="44"/>
+      <c r="E16" s="51"/>
+      <c r="F16" s="44"/>
+      <c r="G16" s="45"/>
+    </row>
+    <row r="17" spans="1:7" s="1" customFormat="1" ht="38">
+      <c r="A17" s="77"/>
+      <c r="B17" s="80"/>
+      <c r="C17" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="D17" s="44"/>
+      <c r="E17" s="51"/>
+      <c r="F17" s="44"/>
+      <c r="G17" s="45"/>
+    </row>
+    <row r="18" spans="1:7" s="1" customFormat="1" ht="19">
+      <c r="A18" s="77"/>
+      <c r="B18" s="80"/>
+      <c r="C18" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="D18" s="44"/>
+      <c r="E18" s="51"/>
+      <c r="F18" s="44"/>
+      <c r="G18" s="45"/>
+    </row>
+    <row r="19" spans="1:7" s="1" customFormat="1" ht="22" customHeight="1">
+      <c r="A19" s="77"/>
+      <c r="B19" s="80"/>
+      <c r="C19" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="D19" s="44"/>
+      <c r="E19" s="51"/>
+      <c r="F19" s="44"/>
+      <c r="G19" s="45"/>
+    </row>
+    <row r="20" spans="1:7" s="1" customFormat="1" ht="22" customHeight="1">
+      <c r="A20" s="77"/>
+      <c r="B20" s="76" t="s">
         <v>134</v>
       </c>
-      <c r="D9" s="25"/>
-      <c r="E9" s="28"/>
-      <c r="F9" s="25"/>
-      <c r="G9" s="26"/>
-    </row>
-    <row r="10" spans="1:7" s="1" customFormat="1" ht="22" customHeight="1">
-      <c r="A10" s="32"/>
-      <c r="B10" s="32"/>
-      <c r="C10" s="8" t="s">
+      <c r="C20" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="D20" s="44"/>
+      <c r="E20" s="51"/>
+      <c r="F20" s="44"/>
+      <c r="G20" s="45"/>
+    </row>
+    <row r="21" spans="1:7" s="1" customFormat="1" ht="22" customHeight="1">
+      <c r="A21" s="77"/>
+      <c r="B21" s="77"/>
+      <c r="C21" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="D21" s="44"/>
+      <c r="E21" s="51"/>
+      <c r="F21" s="44"/>
+      <c r="G21" s="45"/>
+    </row>
+    <row r="22" spans="1:7" s="1" customFormat="1" ht="22" customHeight="1">
+      <c r="A22" s="77"/>
+      <c r="B22" s="77"/>
+      <c r="C22" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="D22" s="44"/>
+      <c r="E22" s="51"/>
+      <c r="F22" s="44"/>
+      <c r="G22" s="45"/>
+    </row>
+    <row r="23" spans="1:7" s="1" customFormat="1" ht="22" customHeight="1">
+      <c r="A23" s="77"/>
+      <c r="B23" s="77"/>
+      <c r="C23" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="D23" s="44"/>
+      <c r="E23" s="51"/>
+      <c r="F23" s="44"/>
+      <c r="G23" s="45"/>
+    </row>
+    <row r="24" spans="1:7" s="1" customFormat="1" ht="22" customHeight="1">
+      <c r="A24" s="77"/>
+      <c r="B24" s="77"/>
+      <c r="C24" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="D24" s="44"/>
+      <c r="E24" s="51"/>
+      <c r="F24" s="44"/>
+      <c r="G24" s="45"/>
+    </row>
+    <row r="25" spans="1:7" s="1" customFormat="1" ht="22" customHeight="1">
+      <c r="A25" s="77"/>
+      <c r="B25" s="77"/>
+      <c r="C25" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="D25" s="44"/>
+      <c r="E25" s="51"/>
+      <c r="F25" s="44"/>
+      <c r="G25" s="45"/>
+    </row>
+    <row r="26" spans="1:7" s="2" customFormat="1" ht="22" customHeight="1">
+      <c r="A26" s="75"/>
+      <c r="B26" s="75"/>
+      <c r="C26" s="75"/>
+      <c r="D26" s="44"/>
+      <c r="E26" s="51"/>
+      <c r="F26" s="44"/>
+      <c r="G26" s="45"/>
+    </row>
+    <row r="27" spans="1:7" s="3" customFormat="1" ht="22" customHeight="1">
+      <c r="A27" s="78" t="s">
         <v>135</v>
       </c>
-      <c r="D10" s="25"/>
-      <c r="E10" s="28"/>
-      <c r="F10" s="25"/>
-      <c r="G10" s="26"/>
-    </row>
-    <row r="11" spans="1:7" s="1" customFormat="1" ht="22" customHeight="1">
-      <c r="A11" s="32"/>
-      <c r="B11" s="32"/>
-      <c r="C11" s="8" t="s">
+      <c r="B27" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="D11" s="25"/>
-      <c r="E11" s="28"/>
-      <c r="F11" s="25"/>
-      <c r="G11" s="26"/>
-    </row>
-    <row r="12" spans="1:7" s="1" customFormat="1" ht="22" customHeight="1">
-      <c r="A12" s="32"/>
-      <c r="B12" s="35"/>
-      <c r="C12" s="8" t="s">
+      <c r="C27" s="11" t="s">
         <v>137</v>
       </c>
-      <c r="D12" s="25"/>
-      <c r="E12" s="28"/>
-      <c r="F12" s="25"/>
-      <c r="G12" s="26"/>
-    </row>
-    <row r="13" spans="1:7" s="1" customFormat="1" ht="22" customHeight="1">
-      <c r="A13" s="32"/>
-      <c r="B13" s="35"/>
-      <c r="C13" s="8" t="s">
+      <c r="D27" s="44"/>
+      <c r="E27" s="51"/>
+      <c r="F27" s="44"/>
+      <c r="G27" s="45"/>
+    </row>
+    <row r="28" spans="1:7" s="3" customFormat="1" ht="22" customHeight="1">
+      <c r="A28" s="78"/>
+      <c r="B28" s="10" t="s">
         <v>138</v>
       </c>
-      <c r="D13" s="25"/>
-      <c r="E13" s="28"/>
-      <c r="F13" s="25"/>
-      <c r="G13" s="26"/>
-    </row>
-    <row r="14" spans="1:7" s="1" customFormat="1" ht="22" customHeight="1">
-      <c r="A14" s="32"/>
-      <c r="B14" s="35"/>
-      <c r="C14" s="8" t="s">
+      <c r="C28" s="11" t="s">
         <v>139</v>
       </c>
-      <c r="D14" s="25"/>
-      <c r="E14" s="28"/>
-      <c r="F14" s="25"/>
-      <c r="G14" s="26"/>
-    </row>
-    <row r="15" spans="1:7" s="1" customFormat="1" ht="22" customHeight="1">
-      <c r="A15" s="32"/>
-      <c r="B15" s="35"/>
-      <c r="C15" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="D15" s="25"/>
-      <c r="E15" s="28"/>
-      <c r="F15" s="25"/>
-      <c r="G15" s="26"/>
-    </row>
-    <row r="16" spans="1:7" s="1" customFormat="1" ht="22" customHeight="1">
-      <c r="A16" s="32"/>
-      <c r="B16" s="35"/>
-      <c r="C16" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="D16" s="25"/>
-      <c r="E16" s="28"/>
-      <c r="F16" s="25"/>
-      <c r="G16" s="26"/>
-    </row>
-    <row r="17" spans="1:7" s="1" customFormat="1" ht="38">
-      <c r="A17" s="32"/>
-      <c r="B17" s="35"/>
-      <c r="C17" s="8" t="s">
-        <v>158</v>
-      </c>
-      <c r="D17" s="25"/>
-      <c r="E17" s="28"/>
-      <c r="F17" s="25"/>
-      <c r="G17" s="26"/>
-    </row>
-    <row r="18" spans="1:7" s="1" customFormat="1" ht="19">
-      <c r="A18" s="32"/>
-      <c r="B18" s="35"/>
-      <c r="C18" s="8" t="s">
-        <v>160</v>
-      </c>
-      <c r="D18" s="25"/>
-      <c r="E18" s="28"/>
-      <c r="F18" s="25"/>
-      <c r="G18" s="26"/>
-    </row>
-    <row r="19" spans="1:7" s="1" customFormat="1" ht="22" customHeight="1">
-      <c r="A19" s="32"/>
-      <c r="B19" s="35"/>
-      <c r="C19" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="D19" s="25"/>
-      <c r="E19" s="28"/>
-      <c r="F19" s="25"/>
-      <c r="G19" s="26"/>
-    </row>
-    <row r="20" spans="1:7" s="1" customFormat="1" ht="22" customHeight="1">
-      <c r="A20" s="32"/>
-      <c r="B20" s="31" t="s">
+      <c r="D28" s="44"/>
+      <c r="E28" s="51"/>
+      <c r="F28" s="44"/>
+      <c r="G28" s="45"/>
+    </row>
+    <row r="29" spans="1:7" s="3" customFormat="1" ht="22" customHeight="1">
+      <c r="A29" s="78"/>
+      <c r="B29" s="10" t="s">
         <v>140</v>
       </c>
-      <c r="C20" s="8" t="s">
+      <c r="C29" s="11" t="s">
         <v>141</v>
       </c>
-      <c r="D20" s="25"/>
-      <c r="E20" s="28"/>
-      <c r="F20" s="25"/>
-      <c r="G20" s="26"/>
-    </row>
-    <row r="21" spans="1:7" s="1" customFormat="1" ht="22" customHeight="1">
-      <c r="A21" s="32"/>
-      <c r="B21" s="32"/>
-      <c r="C21" s="8" t="s">
+      <c r="D29" s="44"/>
+      <c r="E29" s="51"/>
+      <c r="F29" s="44"/>
+      <c r="G29" s="45"/>
+    </row>
+    <row r="30" spans="1:7" s="3" customFormat="1" ht="22" customHeight="1">
+      <c r="A30" s="78"/>
+      <c r="B30" s="10" t="s">
         <v>142</v>
       </c>
-      <c r="D21" s="25"/>
-      <c r="E21" s="28"/>
-      <c r="F21" s="25"/>
-      <c r="G21" s="26"/>
-    </row>
-    <row r="22" spans="1:7" s="1" customFormat="1" ht="22" customHeight="1">
-      <c r="A22" s="32"/>
-      <c r="B22" s="32"/>
-      <c r="C22" s="8" t="s">
+      <c r="C30" s="11" t="s">
         <v>143</v>
       </c>
-      <c r="D22" s="25"/>
-      <c r="E22" s="28"/>
-      <c r="F22" s="25"/>
-      <c r="G22" s="26"/>
-    </row>
-    <row r="23" spans="1:7" s="1" customFormat="1" ht="22" customHeight="1">
-      <c r="A23" s="32"/>
-      <c r="B23" s="32"/>
-      <c r="C23" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="D23" s="25"/>
-      <c r="E23" s="28"/>
-      <c r="F23" s="25"/>
-      <c r="G23" s="26"/>
-    </row>
-    <row r="24" spans="1:7" s="1" customFormat="1" ht="22" customHeight="1">
-      <c r="A24" s="32"/>
-      <c r="B24" s="32"/>
-      <c r="C24" s="8" t="s">
-        <v>145</v>
-      </c>
-      <c r="D24" s="25"/>
-      <c r="E24" s="28"/>
-      <c r="F24" s="25"/>
-      <c r="G24" s="26"/>
-    </row>
-    <row r="25" spans="1:7" s="1" customFormat="1" ht="22" customHeight="1">
-      <c r="A25" s="32"/>
-      <c r="B25" s="32"/>
-      <c r="C25" s="9" t="s">
-        <v>146</v>
-      </c>
-      <c r="D25" s="25"/>
-      <c r="E25" s="28"/>
-      <c r="F25" s="25"/>
-      <c r="G25" s="26"/>
-    </row>
-    <row r="26" spans="1:7" s="2" customFormat="1" ht="22" customHeight="1">
-      <c r="A26" s="30"/>
-      <c r="B26" s="30"/>
-      <c r="C26" s="30"/>
-      <c r="D26" s="25"/>
-      <c r="E26" s="28"/>
-      <c r="F26" s="25"/>
-      <c r="G26" s="26"/>
-    </row>
-    <row r="27" spans="1:7" s="3" customFormat="1" ht="22" customHeight="1">
-      <c r="A27" s="33" t="s">
-        <v>147</v>
-      </c>
-      <c r="B27" s="10" t="s">
-        <v>148</v>
-      </c>
-      <c r="C27" s="11" t="s">
-        <v>149</v>
-      </c>
-      <c r="D27" s="25"/>
-      <c r="E27" s="28"/>
-      <c r="F27" s="25"/>
-      <c r="G27" s="26"/>
-    </row>
-    <row r="28" spans="1:7" s="3" customFormat="1" ht="22" customHeight="1">
-      <c r="A28" s="33"/>
-      <c r="B28" s="10" t="s">
-        <v>150</v>
-      </c>
-      <c r="C28" s="11" t="s">
-        <v>151</v>
-      </c>
-      <c r="D28" s="25"/>
-      <c r="E28" s="28"/>
-      <c r="F28" s="25"/>
-      <c r="G28" s="26"/>
-    </row>
-    <row r="29" spans="1:7" s="3" customFormat="1" ht="22" customHeight="1">
-      <c r="A29" s="33"/>
-      <c r="B29" s="10" t="s">
-        <v>152</v>
-      </c>
-      <c r="C29" s="11" t="s">
-        <v>153</v>
-      </c>
-      <c r="D29" s="25"/>
-      <c r="E29" s="28"/>
-      <c r="F29" s="25"/>
-      <c r="G29" s="26"/>
-    </row>
-    <row r="30" spans="1:7" s="3" customFormat="1" ht="22" customHeight="1">
-      <c r="A30" s="33"/>
-      <c r="B30" s="10" t="s">
-        <v>154</v>
-      </c>
-      <c r="C30" s="11" t="s">
-        <v>155</v>
-      </c>
-      <c r="D30" s="25"/>
-      <c r="E30" s="28"/>
-      <c r="F30" s="25"/>
-      <c r="G30" s="26"/>
+      <c r="D30" s="44"/>
+      <c r="E30" s="51"/>
+      <c r="F30" s="44"/>
+      <c r="G30" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="15">
@@ -2757,7 +2792,7 @@
     <mergeCell ref="F2:F3"/>
     <mergeCell ref="F4:F30"/>
   </mergeCells>
-  <phoneticPr fontId="17" type="noConversion"/>
+  <phoneticPr fontId="28" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <extLst>
